--- a/radares_geolocalizacion.xlsx
+++ b/radares_geolocalizacion.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://filemanagement-my.sharepoint.com/personal/fpino_csi-ing_com/Documents/Escritorio/Automatizaciones/Radares/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{42369F94-BEE5-4ABF-A7FE-651E025D5031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15F7510C-2D70-437F-9487-EE6F9D7588E4}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{42369F94-BEE5-4ABF-A7FE-651E025D5031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA5A474C-119B-4A01-82CB-BA00FBA17832}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Línea Base" sheetId="1" r:id="rId1"/>
+    <sheet name="Linea Base" sheetId="1" r:id="rId1"/>
     <sheet name="Radares" sheetId="2" r:id="rId2"/>
     <sheet name="Postes" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -931,6 +931,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1137,7 +1141,7 @@
   <dimension ref="A1:D254"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1679,7 +1683,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>24</v>
       </c>

--- a/radares_geolocalizacion.xlsx
+++ b/radares_geolocalizacion.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://filemanagement-my.sharepoint.com/personal/fpino_csi-ing_com/Documents/Escritorio/Automatizaciones/Radares/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fpino\OneDrive - CSI Ingenieros - CIEMSA\Escritorio\Automatizaciones\Radares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="95" documentId="13_ncr:1_{42369F94-BEE5-4ABF-A7FE-651E025D5031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC93DCDF-C18D-4E5A-91C4-522F8A513ED9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A635B5B-0B51-43EC-AA58-43ADE8F36079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25815" yWindow="555" windowWidth="17310" windowHeight="9975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-975" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Linea Base" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,22 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="C65" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="C140" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>el poste estaba quebrado por lo que el ultimo numero no se veia
+	-Felipe Pino</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C156" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -52,21 +67,6 @@
             <scheme val="minor"/>
           </rPr>
           <t>en google maps aparece como 203
-	-Felipe Pino</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C98" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>el poste estaba quebrado por lo que el ultimo numero no se veia
 	-Felipe Pino</t>
         </r>
       </text>
@@ -838,7 +838,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -899,6 +899,18 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFF3F3F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -955,7 +967,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1006,6 +1018,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1021,10 +1037,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1230,8 +1242,8 @@
   </sheetPr>
   <dimension ref="A1:F254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A225" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H237" sqref="H237"/>
+    <sheetView topLeftCell="A156" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D177" sqref="A177:D179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4832,8 +4844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A2CC30-B04A-4F4A-B9CB-C95B4F839A52}">
   <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D93" sqref="D93"/>
+    <sheetView topLeftCell="A67" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C89" sqref="A89:C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6120,16 +6132,16 @@
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
+      <c r="A90" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B90" s="3">
+      <c r="B90" s="39">
         <v>-34.707162099999998</v>
       </c>
-      <c r="C90" s="9">
+      <c r="C90" s="40">
         <v>-56.204990500000001</v>
       </c>
-      <c r="D90" s="12" t="s">
+      <c r="D90" s="41" t="s">
         <v>97</v>
       </c>
     </row>
@@ -6286,8 +6298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D553DAC-10CF-4A0B-85B1-AAAC54261F65}">
   <dimension ref="A1:E225"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64:C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6310,3777 +6322,3777 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3">
-        <v>29</v>
-      </c>
-      <c r="D2" s="3">
-        <v>-34.756441199999998</v>
-      </c>
-      <c r="E2" s="3">
-        <v>-56.420951000000002</v>
+      <c r="A2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="2">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2">
+        <v>-34.831002599999998</v>
+      </c>
+      <c r="E2" s="2">
+        <v>-56.010360499999997</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
-        <v>30</v>
-      </c>
-      <c r="D3" s="2">
-        <v>-34.7510969</v>
-      </c>
-      <c r="E3" s="2">
-        <v>-56.429968799999997</v>
+        <v>38</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="3">
+        <v>22</v>
+      </c>
+      <c r="D3" s="3">
+        <v>-34.826626900000001</v>
+      </c>
+      <c r="E3" s="3">
+        <v>-56.000459499999998</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3">
-        <v>31</v>
-      </c>
-      <c r="D4" s="3">
-        <v>-34.745747100000003</v>
-      </c>
-      <c r="E4" s="3">
-        <v>-56.437932600000003</v>
+        <v>38</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="2">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2">
+        <v>-34.8189986</v>
+      </c>
+      <c r="E4" s="2">
+        <v>-55.982176000000003</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3">
-        <v>29</v>
-      </c>
-      <c r="D5" s="3">
-        <v>-34.756606499999997</v>
-      </c>
-      <c r="E5" s="3">
-        <v>-56.421321800000001</v>
+        <v>38</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="2">
+        <v>28</v>
+      </c>
+      <c r="D5" s="2">
+        <v>-34.7981306</v>
+      </c>
+      <c r="E5" s="2">
+        <v>-55.946356999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="2">
-        <v>1</v>
+        <v>38</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="C6" s="2">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2">
-        <v>-34.645799599999997</v>
+        <v>-34.787966500000003</v>
       </c>
       <c r="E6" s="2">
-        <v>-56.618276999999999</v>
+        <v>-55.906641899999997</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="3">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3">
-        <v>52</v>
-      </c>
-      <c r="D7" s="3">
-        <v>-34.641230499999999</v>
-      </c>
-      <c r="E7" s="3">
-        <v>-56.627981499999997</v>
+        <v>38</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="2">
+        <v>34</v>
+      </c>
+      <c r="D7" s="2">
+        <v>-34.7838712</v>
+      </c>
+      <c r="E7" s="2">
+        <v>-55.886474800000002</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1</v>
+      <c r="A8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="C8" s="2">
-        <v>102</v>
+        <v>35</v>
       </c>
       <c r="D8" s="2">
-        <v>-34.365900600000003</v>
+        <v>-34.781312800000002</v>
       </c>
       <c r="E8" s="2">
-        <v>-57.052692700000001</v>
+        <v>-55.876167000000002</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="2">
-        <v>1</v>
+      <c r="A9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="C9" s="2">
-        <v>120</v>
+        <v>37</v>
       </c>
       <c r="D9" s="2">
-        <v>-34.337679399999999</v>
+        <v>-34.777672299999999</v>
       </c>
       <c r="E9" s="2">
-        <v>-57.249334599999997</v>
+        <v>-55.854873699999999</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1</v>
+      <c r="A10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="C10" s="2">
-        <v>122</v>
+        <v>38</v>
       </c>
       <c r="D10" s="2">
-        <v>-34.334929899999999</v>
+        <v>-34.775818700000002</v>
       </c>
       <c r="E10" s="2">
-        <v>-57.2709233</v>
+        <v>-55.844082499999999</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="2">
-        <v>1</v>
+      <c r="A11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="C11" s="2">
-        <v>121</v>
+        <v>39</v>
       </c>
       <c r="D11" s="2">
-        <v>-34.3363078</v>
+        <v>-34.773882999999998</v>
       </c>
       <c r="E11" s="2">
-        <v>-57.260794300000001</v>
+        <v>-55.833477199999997</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="2">
+        <v>40</v>
+      </c>
+      <c r="D12" s="2">
+        <v>-34.772004600000002</v>
+      </c>
+      <c r="E12" s="2">
+        <v>-55.823026900000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="2">
+        <v>41</v>
+      </c>
+      <c r="D13" s="2">
+        <v>-34.770056799999999</v>
+      </c>
+      <c r="E13" s="2">
+        <v>-55.812214300000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="2">
         <v>42</v>
       </c>
-      <c r="B12" s="2">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2">
-        <v>2</v>
-      </c>
-      <c r="D12" s="2">
-        <v>-34.871734600000003</v>
-      </c>
-      <c r="E12" s="2">
-        <v>-56.217147199999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="2">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2">
-        <v>4</v>
-      </c>
-      <c r="D13" s="2">
-        <v>-34.8727345</v>
-      </c>
-      <c r="E13" s="2">
-        <v>-56.237084400000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="D14" s="2">
+        <v>-34.768110200000002</v>
+      </c>
+      <c r="E14" s="2">
+        <v>-55.801388199999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="2">
         <v>43</v>
       </c>
-      <c r="B14" s="2">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2">
-        <v>3</v>
-      </c>
-      <c r="D14" s="2">
-        <v>-34.870019300000003</v>
-      </c>
-      <c r="E14" s="2">
-        <v>-56.2272368</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="2">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2">
-        <v>2</v>
-      </c>
       <c r="D15" s="2">
-        <v>-34.871604499999997</v>
+        <v>-34.766206500000003</v>
       </c>
       <c r="E15" s="2">
-        <v>-56.217585700000001</v>
+        <v>-55.7907796</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" s="2">
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="C16" s="2">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="D16" s="2">
-        <v>-34.371451200000003</v>
+        <v>-34.775111199999998</v>
       </c>
       <c r="E16" s="2">
-        <v>-57.043962200000003</v>
+        <v>-55.567978799999999</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="2">
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="C17" s="2">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="D17" s="2">
-        <v>-34.3611808</v>
+        <v>-34.769208200000001</v>
       </c>
       <c r="E17" s="2">
-        <v>-57.063292699999998</v>
+        <v>-55.577046000000003</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="2">
-        <v>2</v>
+      <c r="A18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="C18" s="2">
-        <v>181</v>
+        <v>63</v>
       </c>
       <c r="D18" s="2">
-        <v>-33.885865699999997</v>
+        <v>-34.763328399999999</v>
       </c>
       <c r="E18" s="2">
-        <v>-57.372155599999999</v>
+        <v>-55.585828999999997</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="2">
-        <v>3</v>
+        <v>40</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="C19" s="2">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="D19" s="2">
-        <v>-34.335922600000004</v>
+        <v>-34.757536100000003</v>
       </c>
       <c r="E19" s="2">
-        <v>-56.731836299999998</v>
+        <v>-55.594458799999998</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="3">
-        <v>3</v>
-      </c>
-      <c r="C20" s="3">
-        <v>91</v>
-      </c>
-      <c r="D20" s="3">
-        <v>-34.344541900000003</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-56.728681100000003</v>
+        <v>40</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="2">
+        <v>61</v>
+      </c>
+      <c r="D20" s="2">
+        <v>-34.754127099999998</v>
+      </c>
+      <c r="E20" s="2">
+        <v>-55.604168799999997</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="2">
-        <v>3</v>
+        <v>40</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="C21" s="2">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D21" s="2">
-        <v>-34.519295</v>
+        <v>-34.7535095</v>
       </c>
       <c r="E21" s="2">
-        <v>-56.761322100000001</v>
+        <v>-55.614687400000001</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="3">
-        <v>3</v>
-      </c>
-      <c r="C22" s="3">
-        <v>72</v>
-      </c>
-      <c r="D22" s="3">
-        <v>-34.510340399999997</v>
-      </c>
-      <c r="E22" s="3">
-        <v>-56.762552700000001</v>
+        <v>40</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="2">
+        <v>59</v>
+      </c>
+      <c r="D22" s="2">
+        <v>-34.752793199999999</v>
+      </c>
+      <c r="E22" s="2">
+        <v>-55.6261267</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B23" s="2">
-        <v>3</v>
+        <v>40</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="C23" s="2">
-        <v>624</v>
+        <v>58</v>
       </c>
       <c r="D23" s="2">
-        <v>-30.263759</v>
+        <v>-34.752128999999996</v>
       </c>
       <c r="E23" s="2">
-        <v>-57.589700200000003</v>
+        <v>-55.636844400000001</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B24" s="2">
-        <v>3</v>
+        <v>40</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="C24" s="2">
-        <v>629</v>
+        <v>57</v>
       </c>
       <c r="D24" s="2">
-        <v>-30.224732599999999</v>
+        <v>-34.751429299999998</v>
       </c>
       <c r="E24" s="2">
-        <v>-57.5697774</v>
+        <v>-55.648282500000001</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B25" s="2">
-        <v>3</v>
+        <v>40</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="C25" s="2">
-        <v>627</v>
+        <v>56</v>
       </c>
       <c r="D25" s="2">
-        <v>-30.239971700000002</v>
+        <v>-34.750744400000002</v>
       </c>
       <c r="E25" s="2">
-        <v>-57.580583699999998</v>
+        <v>-55.659243799999999</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B26" s="2">
-        <v>3</v>
+        <v>40</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="C26" s="2">
-        <v>625</v>
+        <v>55</v>
       </c>
       <c r="D26" s="2">
-        <v>-30.255093599999999</v>
+        <v>-34.7500924</v>
       </c>
       <c r="E26" s="2">
-        <v>-57.592210399999999</v>
+        <v>-55.669459699999997</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B27" s="2">
-        <v>3</v>
+        <v>40</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="C27" s="2">
-        <v>629</v>
+        <v>54</v>
       </c>
       <c r="D27" s="2">
-        <v>-30.2247737</v>
+        <v>-34.749486099999999</v>
       </c>
       <c r="E27" s="2">
-        <v>-57.569767400000003</v>
+        <v>-55.679443300000003</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B28" s="2">
-        <v>3</v>
+        <v>40</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="C28" s="2">
-        <v>483</v>
+        <v>53</v>
       </c>
       <c r="D28" s="2">
-        <v>-31.4165414</v>
+        <v>-34.749022699999998</v>
       </c>
       <c r="E28" s="2">
-        <v>-57.940942999999997</v>
+        <v>-55.692250199999997</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B29" s="2">
-        <v>3</v>
+        <v>40</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="C29" s="2">
-        <v>479</v>
+        <v>52</v>
       </c>
       <c r="D29" s="2">
-        <v>-31.445309900000002</v>
+        <v>-34.749705499999997</v>
       </c>
       <c r="E29" s="2">
-        <v>-57.917226399999997</v>
+        <v>-55.7019643</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B30" s="2">
-        <v>3</v>
+        <v>40</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="C30" s="2">
-        <v>478</v>
+        <v>50</v>
       </c>
       <c r="D30" s="2">
-        <v>-31.454391699999999</v>
+        <v>-34.7546812</v>
       </c>
       <c r="E30" s="2">
-        <v>-57.9099869</v>
+        <v>-55.723604700000003</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B31" s="2">
-        <v>3</v>
+        <v>40</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="C31" s="2">
-        <v>453</v>
+        <v>49</v>
       </c>
       <c r="D31" s="2">
-        <v>-31.659306900000001</v>
+        <v>-34.757863100000002</v>
       </c>
       <c r="E31" s="2">
-        <v>-57.891723399999997</v>
+        <v>-55.732943400000003</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B32" s="2">
-        <v>3</v>
+        <v>40</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="C32" s="2">
-        <v>433</v>
+        <v>47</v>
       </c>
       <c r="D32" s="2">
-        <v>-31.8320963</v>
+        <v>-34.764945500000003</v>
       </c>
       <c r="E32" s="2">
-        <v>-57.887203</v>
+        <v>-55.752173200000001</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B33" s="2">
-        <v>3</v>
+        <v>40</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="C33" s="2">
-        <v>431</v>
+        <v>46</v>
       </c>
       <c r="D33" s="2">
-        <v>-31.8479764</v>
+        <v>-34.766418999999999</v>
       </c>
       <c r="E33" s="2">
-        <v>-57.879711200000003</v>
+        <v>-55.762613399999999</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B34" s="2">
-        <v>3</v>
+        <v>40</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="C34" s="2">
-        <v>432</v>
+        <v>45</v>
       </c>
       <c r="D34" s="2">
-        <v>-31.840779000000001</v>
+        <v>-34.767703699999998</v>
       </c>
       <c r="E34" s="2">
-        <v>-57.885954699999999</v>
+        <v>-55.774704200000002</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B35" s="2">
-        <v>3</v>
+        <v>40</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="C35" s="2">
-        <v>193</v>
+        <v>44</v>
       </c>
       <c r="D35" s="2">
-        <v>-33.509833999999998</v>
+        <v>-34.766315599999999</v>
       </c>
       <c r="E35" s="2">
-        <v>-56.925576700000001</v>
+        <v>-55.785035899999997</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B36" s="2">
-        <v>3</v>
+        <v>40</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="C36" s="2">
-        <v>187</v>
+        <v>43</v>
       </c>
       <c r="D36" s="2">
-        <v>-33.543555599999998</v>
+        <v>-34.766945100000001</v>
       </c>
       <c r="E36" s="2">
-        <v>-56.884069699999998</v>
+        <v>-55.795778300000002</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B37" s="2">
-        <v>3</v>
+        <v>40</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="C37" s="2">
-        <v>185</v>
+        <v>40</v>
       </c>
       <c r="D37" s="2">
-        <v>-33.552266899999999</v>
+        <v>-34.772754599999999</v>
       </c>
       <c r="E37" s="2">
-        <v>-56.877729500000001</v>
+        <v>-55.827794599999997</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B38" s="2">
-        <v>4</v>
+        <v>40</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="C38" s="2">
-        <v>380</v>
+        <v>39</v>
       </c>
       <c r="D38" s="2">
-        <v>-32.362075699999998</v>
+        <v>-34.774540399999999</v>
       </c>
       <c r="E38" s="2">
-        <v>-57.209140400000003</v>
+        <v>-55.837724399999999</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B39" s="2">
-        <v>4</v>
+        <v>40</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="C39" s="2">
-        <v>381</v>
+        <v>38</v>
       </c>
       <c r="D39" s="2">
-        <v>-32.353285300000003</v>
+        <v>-34.776378399999999</v>
       </c>
       <c r="E39" s="2">
-        <v>-57.210713300000002</v>
+        <v>-55.848028599999999</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" s="3">
-        <v>5</v>
-      </c>
-      <c r="C40" s="3">
-        <v>37</v>
-      </c>
-      <c r="D40" s="3">
-        <v>-34.601526499999999</v>
-      </c>
-      <c r="E40" s="3">
-        <v>-56.261095300000001</v>
+      <c r="A40" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" s="2">
+        <v>36</v>
+      </c>
+      <c r="D40" s="2">
+        <v>-34.779713200000003</v>
+      </c>
+      <c r="E40" s="2">
+        <v>-55.870215299999998</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41" s="2">
-        <v>5</v>
+      <c r="A41" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="C41" s="2">
-        <v>38</v>
-      </c>
-      <c r="D41" s="3">
-        <v>-34.5989468</v>
-      </c>
-      <c r="E41" s="3">
-        <v>-56.261754500000002</v>
+        <v>44</v>
+      </c>
+      <c r="D41" s="2">
+        <v>-34.767148400000004</v>
+      </c>
+      <c r="E41" s="2">
+        <v>-55.780038900000001</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="2">
-        <v>5</v>
+        <v>46</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="C42" s="2">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D42" s="2">
-        <v>-34.863460099999998</v>
+        <v>-34.765955400000003</v>
       </c>
       <c r="E42" s="2">
-        <v>-56.254009199999999</v>
+        <v>-55.758106099999999</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43" s="2">
-        <v>5</v>
+        <v>46</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="C43" s="2">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="D43" s="2">
-        <v>-34.855570899999996</v>
+        <v>-34.764009999999999</v>
       </c>
       <c r="E43" s="2">
-        <v>-56.255686799999999</v>
+        <v>-55.7478354</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44" s="2">
-        <v>5</v>
+        <v>46</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="C44" s="2">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="D44" s="2">
-        <v>-34.821584899999998</v>
+        <v>-34.760048900000001</v>
       </c>
       <c r="E44" s="2">
-        <v>-56.254342200000004</v>
+        <v>-55.7380888</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45" s="2">
-        <v>5</v>
+        <v>46</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="C45" s="2">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D45" s="2">
-        <v>-34.837424800000001</v>
+        <v>-34.756493599999999</v>
       </c>
       <c r="E45" s="2">
-        <v>-56.254040699999997</v>
+        <v>-55.7281738</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B46" s="2">
-        <v>5</v>
+        <v>46</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="C46" s="2">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D46" s="2">
-        <v>-34.846372100000004</v>
+        <v>-34.753221600000003</v>
       </c>
       <c r="E46" s="2">
-        <v>-56.2540665</v>
+        <v>-55.718584399999997</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B47" s="2">
-        <v>5</v>
+        <v>46</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="C47" s="2">
-        <v>248</v>
+        <v>52</v>
       </c>
       <c r="D47" s="2">
-        <v>-32.825285999999998</v>
+        <v>-34.7494972</v>
       </c>
       <c r="E47" s="2">
-        <v>-56.498287699999999</v>
+        <v>-55.69699</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B48" s="2">
-        <v>5</v>
+        <v>46</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="C48" s="2">
-        <v>378</v>
+        <v>53</v>
       </c>
       <c r="D48" s="2">
-        <v>-31.807157499999999</v>
+        <v>-34.749205400000001</v>
       </c>
       <c r="E48" s="2">
-        <v>-55.975929700000002</v>
+        <v>-55.686003100000001</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B49" s="2">
-        <v>5</v>
+        <v>46</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="C49" s="2">
-        <v>386</v>
+        <v>54</v>
       </c>
       <c r="D49" s="2">
-        <v>-31.741326099999998</v>
+        <v>-34.749928099999998</v>
       </c>
       <c r="E49" s="2">
-        <v>-55.982404699999996</v>
+        <v>-55.6744992</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B50" s="2">
-        <v>5</v>
+        <v>46</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="C50" s="2">
-        <v>388</v>
+        <v>55</v>
       </c>
       <c r="D50" s="2">
-        <v>-31.726261699999998</v>
+        <v>-34.750568199999996</v>
       </c>
       <c r="E50" s="2">
-        <v>-55.970872</v>
+        <v>-55.664225000000002</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B51" s="2">
-        <v>5</v>
+        <v>46</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="C51" s="2">
-        <v>387</v>
+        <v>57</v>
       </c>
       <c r="D51" s="2">
-        <v>-31.733282599999999</v>
+        <v>-34.7532152</v>
       </c>
       <c r="E51" s="2">
-        <v>-55.976318900000003</v>
+        <v>-55.621974199999997</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B52" s="2">
-        <v>5</v>
+        <v>46</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="C52" s="2">
-        <v>394</v>
+        <v>58</v>
       </c>
       <c r="D52" s="2">
-        <v>-31.690952100000001</v>
+        <v>-34.752611600000002</v>
       </c>
       <c r="E52" s="2">
-        <v>-55.933511000000003</v>
+        <v>-55.631622399999998</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B53" s="2">
-        <v>7</v>
+        <v>46</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="C53" s="2">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="D53" s="2">
-        <v>-34.378006599999999</v>
+        <v>-34.7532888</v>
       </c>
       <c r="E53" s="2">
-        <v>-55.791219900000002</v>
+        <v>-55.620735600000003</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B54" s="2">
-        <v>7</v>
+        <v>46</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="C54" s="2">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="D54" s="2">
-        <v>-34.363683199999997</v>
+        <v>-34.753976100000003</v>
       </c>
       <c r="E54" s="2">
-        <v>-55.777944900000001</v>
+        <v>-55.609915700000002</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B55" s="2">
-        <v>7</v>
+        <v>46</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="C55" s="2">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="D55" s="2">
-        <v>-34.345411300000002</v>
+        <v>-34.755028600000003</v>
       </c>
       <c r="E55" s="2">
-        <v>-55.759294799999999</v>
+        <v>-55.599263399999998</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B56" s="2">
-        <v>7</v>
+        <v>46</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="C56" s="2">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="D56" s="2">
-        <v>-34.227719899999997</v>
+        <v>-34.760369300000001</v>
       </c>
       <c r="E56" s="2">
-        <v>-55.735616800000003</v>
+        <v>-55.590527600000001</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B57" s="2">
-        <v>7</v>
+        <v>46</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="C57" s="2">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="D57" s="2">
-        <v>-34.211428599999998</v>
+        <v>-34.765885099999998</v>
       </c>
       <c r="E57" s="2">
-        <v>-55.744151500000001</v>
+        <v>-55.582346200000003</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B58" s="2">
-        <v>7</v>
+        <v>46</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="C58" s="2">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="D58" s="2">
-        <v>-34.195167300000001</v>
+        <v>-34.771803300000002</v>
       </c>
       <c r="E58" s="2">
-        <v>-55.735301300000003</v>
+        <v>-55.573514699999997</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B59" s="2">
-        <v>7</v>
+        <v>47</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="C59" s="2">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="D59" s="2">
-        <v>-34.190113199999999</v>
+        <v>-34.781058299999998</v>
       </c>
       <c r="E59" s="2">
-        <v>-55.726644899999997</v>
+        <v>-55.875745000000002</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B60" s="2">
-        <v>7</v>
+        <v>47</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="C60" s="2">
-        <v>108</v>
+        <v>33</v>
       </c>
       <c r="D60" s="2">
-        <v>-34.1188438</v>
+        <v>-34.788497399999997</v>
       </c>
       <c r="E60" s="2">
-        <v>-55.6707678</v>
+        <v>-55.894941699999997</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B61" s="2">
-        <v>7</v>
+        <v>47</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="C61" s="2">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="D61" s="2">
-        <v>-34.1029585</v>
+        <v>-34.803625400000001</v>
       </c>
       <c r="E61" s="2">
-        <v>-55.656573100000003</v>
+        <v>-55.9548822</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B62" s="2">
-        <v>7</v>
+        <v>47</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="C62" s="2">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="D62" s="2">
-        <v>-33.871059600000002</v>
+        <v>-34.814089099999997</v>
       </c>
       <c r="E62" s="2">
-        <v>-55.55509</v>
+        <v>-55.970489299999997</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B63" s="2">
-        <v>7</v>
+        <v>47</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="C63" s="2">
-        <v>142</v>
+        <v>23</v>
       </c>
       <c r="D63" s="2">
-        <v>-33.865596400000001</v>
+        <v>-34.822414199999997</v>
       </c>
       <c r="E63" s="2">
-        <v>-55.550547999999999</v>
+        <v>-55.991558400000002</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="B64" s="2">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="C64" s="2">
-        <v>144</v>
+        <v>33</v>
       </c>
       <c r="D64" s="2">
-        <v>-33.860086500000001</v>
+        <v>-34.791499299999998</v>
       </c>
       <c r="E64" s="2">
-        <v>-55.535391699999998</v>
+        <v>-56.112736400000003</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B65" s="2">
-        <v>7</v>
-      </c>
-      <c r="C65" s="2">
-        <v>202</v>
-      </c>
-      <c r="D65" s="2">
-        <v>-33.473594599999998</v>
-      </c>
-      <c r="E65" s="2">
-        <v>-55.162986799999999</v>
+      <c r="A65" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B65" s="3">
+        <v>102</v>
+      </c>
+      <c r="C65" s="3">
+        <v>32</v>
+      </c>
+      <c r="D65" s="3">
+        <v>-34.7914709</v>
+      </c>
+      <c r="E65" s="3">
+        <v>-56.102841499999997</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>56</v>
+      <c r="A66" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="B66" s="2">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="C66" s="2">
-        <v>204</v>
+        <v>31</v>
       </c>
       <c r="D66" s="2">
-        <v>-33.475643900000001</v>
+        <v>-34.793593199999997</v>
       </c>
       <c r="E66" s="2">
-        <v>-55.151801300000002</v>
+        <v>-56.092101399999997</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B67" s="2">
-        <v>7</v>
-      </c>
-      <c r="C67" s="2">
-        <v>206</v>
-      </c>
-      <c r="D67" s="2">
-        <v>-33.463812500000003</v>
-      </c>
-      <c r="E67" s="2">
-        <v>-55.145334300000002</v>
+        <v>37</v>
+      </c>
+      <c r="B67" s="3">
+        <v>102</v>
+      </c>
+      <c r="C67" s="3">
+        <v>28</v>
+      </c>
+      <c r="D67" s="3">
+        <v>-34.796981600000002</v>
+      </c>
+      <c r="E67" s="3">
+        <v>-56.064085800000001</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="B68" s="2">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="C68" s="2">
-        <v>246</v>
+        <v>27</v>
       </c>
       <c r="D68" s="2">
-        <v>-33.137613799999997</v>
+        <v>-34.802264299999997</v>
       </c>
       <c r="E68" s="2">
-        <v>-55.121232200000001</v>
+        <v>-56.055011299999997</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="B69" s="2">
-        <v>7</v>
-      </c>
-      <c r="C69" s="2">
-        <v>248</v>
-      </c>
-      <c r="D69" s="2">
-        <v>-33.120181199999998</v>
-      </c>
-      <c r="E69" s="2">
-        <v>-55.1334479</v>
+        <v>102</v>
+      </c>
+      <c r="C69" s="3">
+        <v>26</v>
+      </c>
+      <c r="D69" s="3">
+        <v>-34.8076097</v>
+      </c>
+      <c r="E69" s="3">
+        <v>-56.045830100000003</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
-        <v>57</v>
+      <c r="A70" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="B70" s="2">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="C70" s="2">
-        <v>250</v>
+        <v>23</v>
       </c>
       <c r="D70" s="2">
-        <v>-33.111130899999999</v>
+        <v>-34.818210999999998</v>
       </c>
       <c r="E70" s="2">
-        <v>-55.132203400000002</v>
+        <v>-56.015840400000002</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B71" s="2">
-        <v>7</v>
-      </c>
-      <c r="C71" s="2">
-        <v>302</v>
-      </c>
-      <c r="D71" s="2">
-        <v>-32.842680799999997</v>
-      </c>
-      <c r="E71" s="2">
-        <v>-54.7758015</v>
+      <c r="A71" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B71" s="3">
+        <v>102</v>
+      </c>
+      <c r="C71" s="3">
+        <v>24</v>
+      </c>
+      <c r="D71" s="3">
+        <v>-34.8163135</v>
+      </c>
+      <c r="E71" s="3">
+        <v>-56.026574599999996</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
-        <v>59</v>
+      <c r="A72" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="B72" s="2">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="C72" s="2">
-        <v>303</v>
+        <v>25</v>
       </c>
       <c r="D72" s="2">
-        <v>-32.841546899999997</v>
+        <v>-34.810444699999998</v>
       </c>
       <c r="E72" s="2">
-        <v>-54.769051500000003</v>
+        <v>-56.040668099999998</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B73" s="2">
-        <v>7</v>
-      </c>
-      <c r="C73" s="2">
-        <v>332</v>
-      </c>
-      <c r="D73" s="2">
-        <v>-32.656530600000004</v>
-      </c>
-      <c r="E73" s="2">
-        <v>-54.590309400000002</v>
+      <c r="A73" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B73" s="3">
+        <v>102</v>
+      </c>
+      <c r="C73" s="3">
+        <v>27</v>
+      </c>
+      <c r="D73" s="3">
+        <v>-34.8021289</v>
+      </c>
+      <c r="E73" s="3">
+        <v>-56.055015099999999</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B74" s="2">
-        <v>7</v>
-      </c>
-      <c r="C74" s="2">
-        <v>333</v>
-      </c>
-      <c r="D74" s="2">
-        <v>-32.647982800000001</v>
-      </c>
-      <c r="E74" s="2">
-        <v>-54.592476300000001</v>
+      <c r="A74" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B74" s="3">
+        <v>102</v>
+      </c>
+      <c r="C74" s="3">
+        <v>31</v>
+      </c>
+      <c r="D74" s="3">
+        <v>-34.793560200000002</v>
+      </c>
+      <c r="E74" s="3">
+        <v>-56.091317699999998</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
-        <v>92</v>
+      <c r="A75" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="B75" s="2">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="C75" s="2">
-        <v>334</v>
+        <v>32</v>
       </c>
       <c r="D75" s="2">
-        <v>-32.637869299999998</v>
+        <v>-34.791544500000001</v>
       </c>
       <c r="E75" s="2">
-        <v>-54.589067100000001</v>
+        <v>-56.102134599999999</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B76" s="2">
-        <v>7</v>
-      </c>
-      <c r="C76" s="2">
-        <v>336</v>
-      </c>
-      <c r="D76" s="2">
-        <v>-32.627207800000001</v>
-      </c>
-      <c r="E76" s="2">
-        <v>-54.5904904</v>
+      <c r="A76" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B76" s="3">
+        <v>102</v>
+      </c>
+      <c r="C76" s="3">
+        <v>33</v>
+      </c>
+      <c r="D76" s="3">
+        <v>-34.791171800000001</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-56.112250099999997</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="B77" s="2">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="C77" s="2">
-        <v>338</v>
+        <v>34</v>
       </c>
       <c r="D77" s="2">
-        <v>-32.619190000000003</v>
+        <v>-34.794429800000003</v>
       </c>
       <c r="E77" s="2">
-        <v>-54.593009299999999</v>
+        <v>-56.122204699999998</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="B78" s="2">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="C78" s="2">
-        <v>350</v>
+        <v>35</v>
       </c>
       <c r="D78" s="2">
-        <v>-32.520221900000003</v>
+        <v>-34.7954741</v>
       </c>
       <c r="E78" s="2">
-        <v>-54.546657099999997</v>
+        <v>-56.133652499999997</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="B79" s="2">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="C79" s="2">
-        <v>351</v>
+        <v>36</v>
       </c>
       <c r="D79" s="2">
-        <v>-32.518292700000003</v>
+        <v>-34.796344400000002</v>
       </c>
       <c r="E79" s="2">
-        <v>-54.541951699999998</v>
+        <v>-56.144921099999998</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="B80" s="2">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="C80" s="2">
-        <v>352</v>
+        <v>37</v>
       </c>
       <c r="D80" s="2">
-        <v>-32.512157700000003</v>
+        <v>-34.797401000000001</v>
       </c>
       <c r="E80" s="2">
-        <v>-54.530456299999997</v>
+        <v>-56.155912499999999</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="B81" s="2">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="C81" s="2">
-        <v>356</v>
+        <v>38</v>
       </c>
       <c r="D81" s="2">
-        <v>-32.507873799999999</v>
+        <v>-34.794561899999998</v>
       </c>
       <c r="E81" s="2">
-        <v>-54.520959300000001</v>
+        <v>-56.1659699</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
-        <v>41</v>
+      <c r="A82" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="B82" s="2">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="C82" s="2">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D82" s="2">
-        <v>-34.784801100000003</v>
+        <v>-34.793652700000003</v>
       </c>
       <c r="E82" s="2">
-        <v>-56.061717600000001</v>
+        <v>-56.176571699999997</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B83" s="3">
-        <v>8</v>
-      </c>
-      <c r="C83" s="3">
-        <v>20</v>
-      </c>
-      <c r="D83" s="3">
-        <v>-34.7781357</v>
-      </c>
-      <c r="E83" s="3">
-        <v>-56.055548299999998</v>
+      <c r="A83" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B83" s="2">
+        <v>102</v>
+      </c>
+      <c r="C83" s="2">
+        <v>40</v>
+      </c>
+      <c r="D83" s="2">
+        <v>-34.794870400000001</v>
+      </c>
+      <c r="E83" s="2">
+        <v>-56.187430800000001</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B84" s="3">
-        <v>8</v>
+      <c r="A84" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B84" s="2">
+        <v>102</v>
       </c>
       <c r="C84" s="2">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D84" s="2">
-        <v>-34.7763086</v>
+        <v>-34.787939999999999</v>
       </c>
       <c r="E84" s="2">
-        <v>-56.045110399999999</v>
+        <v>-56.217466999999999</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="3" t="s">
-        <v>41</v>
+      <c r="A85" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="B85" s="2">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="C85" s="2">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="D85" s="2">
-        <v>-34.774492100000003</v>
+        <v>-34.782985099999998</v>
       </c>
       <c r="E85" s="2">
-        <v>-56.034936000000002</v>
+        <v>-56.246694400000003</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="3" t="s">
-        <v>41</v>
+      <c r="A86" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="B86" s="2">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="C86" s="2">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="D86" s="2">
-        <v>-34.763678900000002</v>
+        <v>-34.780559699999998</v>
       </c>
       <c r="E86" s="2">
-        <v>-56.0177695</v>
+        <v>-56.256601400000001</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
-        <v>41</v>
+      <c r="A87" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="B87" s="2">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="C87" s="2">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="D87" s="2">
-        <v>-34.757755400000001</v>
+        <v>-34.775860700000003</v>
       </c>
       <c r="E87" s="2">
-        <v>-56.009134500000002</v>
+        <v>-56.266699899999999</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="3" t="s">
-        <v>41</v>
+      <c r="A88" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="B88" s="2">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="C88" s="2">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D88" s="2">
-        <v>-34.752346600000003</v>
+        <v>-34.795016099999998</v>
       </c>
       <c r="E88" s="2">
-        <v>-56.000978099999998</v>
+        <v>-56.187792199999997</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
+      <c r="A89" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B89" s="2">
+        <v>102</v>
+      </c>
+      <c r="C89" s="2">
+        <v>39</v>
+      </c>
+      <c r="D89" s="2">
+        <v>-34.793805200000001</v>
+      </c>
+      <c r="E89" s="2">
+        <v>-56.176998500000003</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B90" s="2">
+        <v>102</v>
+      </c>
+      <c r="C90" s="2">
+        <v>38</v>
+      </c>
+      <c r="D90" s="2">
+        <v>-34.794558100000003</v>
+      </c>
+      <c r="E90" s="2">
+        <v>-56.166392399999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B91" s="2">
+        <v>102</v>
+      </c>
+      <c r="C91" s="2">
+        <v>37</v>
+      </c>
+      <c r="D91" s="2">
+        <v>-34.797476699999997</v>
+      </c>
+      <c r="E91" s="2">
+        <v>-56.156129300000003</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B92" s="2">
+        <v>102</v>
+      </c>
+      <c r="C92" s="2">
         <v>36</v>
       </c>
-      <c r="B89" s="2">
-        <v>8</v>
-      </c>
-      <c r="C89" s="2">
-        <v>29</v>
-      </c>
-      <c r="D89" s="2">
-        <v>-34.734550800000001</v>
-      </c>
-      <c r="E89" s="2">
-        <v>-55.975504200000003</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B90" s="3">
-        <v>8</v>
-      </c>
-      <c r="C90" s="3">
-        <v>27</v>
-      </c>
-      <c r="D90" s="3">
-        <v>-34.746390599999998</v>
-      </c>
-      <c r="E90" s="3">
-        <v>-55.992266000000001</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B91" s="3">
-        <v>8</v>
-      </c>
-      <c r="C91" s="3">
-        <v>23</v>
-      </c>
-      <c r="D91" s="3">
-        <v>-34.769955500000002</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-56.025003300000002</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B92" s="2">
-        <v>8</v>
-      </c>
-      <c r="C92" s="2">
-        <v>22</v>
-      </c>
       <c r="D92" s="2">
-        <v>-34.774303400000001</v>
+        <v>-34.796491400000001</v>
       </c>
       <c r="E92" s="2">
-        <v>-56.034782300000003</v>
+        <v>-56.145162499999998</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B93" s="2">
-        <v>8</v>
+        <v>32</v>
+      </c>
+      <c r="B93" s="3">
+        <v>101</v>
       </c>
       <c r="C93" s="3">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D93" s="3">
-        <v>-34.776285999999999</v>
+        <v>-34.794794799999998</v>
       </c>
       <c r="E93" s="3">
-        <v>-56.044657700000002</v>
+        <v>-56.002797100000002</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B94" s="2">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="C94" s="2">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D94" s="2">
-        <v>-34.777737399999999</v>
+        <v>-34.787105199999999</v>
       </c>
       <c r="E94" s="2">
-        <v>-56.055239899999997</v>
+        <v>-56.000921400000003</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B95" s="3">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="C95" s="3">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D95" s="3">
-        <v>-34.7847984</v>
+        <v>-34.794224800000002</v>
       </c>
       <c r="E95" s="3">
-        <v>-56.061906</v>
+        <v>-56.002833000000003</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B96" s="2">
-        <v>8</v>
-      </c>
-      <c r="C96" s="2">
-        <v>18</v>
-      </c>
-      <c r="D96" s="2">
-        <v>-34.7908008</v>
-      </c>
-      <c r="E96" s="2">
-        <v>-56.067678899999997</v>
+      <c r="A96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B96" s="3">
+        <v>81</v>
+      </c>
+      <c r="C96" s="3">
+        <v>10</v>
+      </c>
+      <c r="D96" s="3">
+        <v>-34.427339400000001</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-56.286322200000001</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="B97" s="2">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="C97" s="2">
-        <v>402</v>
+        <v>35</v>
       </c>
       <c r="D97" s="2">
-        <v>-32.343396900000002</v>
+        <v>-34.688074399999998</v>
       </c>
       <c r="E97" s="2">
-        <v>-54.168162600000002</v>
+        <v>-55.968210200000001</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
-        <v>63</v>
+      <c r="A98" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="B98" s="2">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="C98" s="2">
-        <v>280</v>
+        <v>31</v>
       </c>
       <c r="D98" s="2">
-        <v>-33.200913399999997</v>
+        <v>-34.713849500000002</v>
       </c>
       <c r="E98" s="2">
-        <v>-54.382678900000002</v>
+        <v>-56.056446999999999</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="B99" s="2">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="C99" s="2">
-        <v>288</v>
+        <v>25</v>
       </c>
       <c r="D99" s="2">
-        <v>-33.205675499999998</v>
+        <v>-34.7062344</v>
       </c>
       <c r="E99" s="2">
-        <v>-54.383932799999997</v>
+        <v>-56.204045999999998</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="B100" s="2">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="C100" s="2">
-        <v>219</v>
+        <v>14</v>
       </c>
       <c r="D100" s="2">
-        <v>-33.733697499999998</v>
+        <v>-34.027917199999997</v>
       </c>
       <c r="E100" s="2">
-        <v>-54.745128700000002</v>
+        <v>-57.895447500000003</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="B101" s="2">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C101" s="2">
-        <v>217</v>
+        <v>133</v>
       </c>
       <c r="D101" s="2">
-        <v>-33.747144800000001</v>
+        <v>-30.434780799999999</v>
       </c>
       <c r="E101" s="2">
-        <v>-54.754930600000002</v>
+        <v>-56.455779800000002</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B102" s="2">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C102" s="2">
-        <v>337</v>
+        <v>130</v>
       </c>
       <c r="D102" s="2">
-        <v>-33.701708699999998</v>
+        <v>-30.420006600000001</v>
       </c>
       <c r="E102" s="2">
-        <v>-53.453983800000003</v>
+        <v>-56.475481000000002</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B103" s="2">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C103" s="2">
-        <v>338</v>
+        <v>131</v>
       </c>
       <c r="D103" s="2">
-        <v>-33.695153699999999</v>
+        <v>-30.422549100000001</v>
       </c>
       <c r="E103" s="2">
-        <v>-53.447613199999999</v>
+        <v>-56.465154800000001</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B104" s="2">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C104" s="2">
-        <v>265</v>
+        <v>129</v>
       </c>
       <c r="D104" s="2">
-        <v>-34.199694600000001</v>
+        <v>-30.414903500000001</v>
       </c>
       <c r="E104" s="2">
-        <v>-53.848165399999999</v>
+        <v>-56.484902499999997</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B105" s="2">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C105" s="2">
-        <v>264</v>
+        <v>127</v>
       </c>
       <c r="D105" s="2">
-        <v>-34.204125099999999</v>
+        <v>-30.426566399999999</v>
       </c>
       <c r="E105" s="2">
-        <v>-53.852807900000002</v>
+        <v>-56.499507600000001</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B106" s="3">
-        <v>11</v>
-      </c>
-      <c r="C106" s="3">
-        <v>96</v>
-      </c>
-      <c r="D106" s="3">
-        <v>-34.518438000000003</v>
-      </c>
-      <c r="E106" s="3">
-        <v>-56.3032951</v>
+        <v>77</v>
+      </c>
+      <c r="B106" s="2">
+        <v>30</v>
+      </c>
+      <c r="C106" s="2">
+        <v>128</v>
+      </c>
+      <c r="D106" s="2">
+        <v>-30.420478299999999</v>
+      </c>
+      <c r="E106" s="2">
+        <v>-56.492145700000002</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B107" s="3">
-        <v>11</v>
-      </c>
-      <c r="C107" s="3">
-        <v>14</v>
+      <c r="A107" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B107" s="2">
+        <v>23</v>
+      </c>
+      <c r="C107" s="2">
+        <v>150</v>
       </c>
       <c r="D107" s="3">
-        <v>-34.358004899999997</v>
+        <v>-33.969085100000001</v>
       </c>
       <c r="E107" s="3">
-        <v>-57.046905000000002</v>
+        <v>-57.095847599999999</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B108" s="3">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C108" s="3">
-        <v>15</v>
+        <v>323</v>
       </c>
       <c r="D108" s="3">
-        <v>-34.353887499999999</v>
+        <v>-33.516751900000003</v>
       </c>
       <c r="E108" s="3">
-        <v>-57.036854400000003</v>
+        <v>-58.197563199999998</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B109" s="3">
+        <v>65</v>
+      </c>
+      <c r="B109" s="2">
+        <v>19</v>
+      </c>
+      <c r="C109" s="2">
         <v>11</v>
       </c>
-      <c r="C109" s="3">
-        <v>38</v>
-      </c>
-      <c r="D109" s="3">
-        <v>-34.317376500000002</v>
-      </c>
-      <c r="E109" s="3">
-        <v>-56.817136699999999</v>
+      <c r="D109" s="2">
+        <v>-33.681609999999999</v>
+      </c>
+      <c r="E109" s="2">
+        <v>-53.5609058</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B110" s="3">
-        <v>11</v>
-      </c>
-      <c r="C110" s="3">
-        <v>40</v>
-      </c>
-      <c r="D110" s="3">
-        <v>-34.326614599999999</v>
-      </c>
-      <c r="E110" s="3">
-        <v>-56.798204800000001</v>
+        <v>69</v>
+      </c>
+      <c r="B110" s="2">
+        <v>14</v>
+      </c>
+      <c r="C110" s="2">
+        <v>139</v>
+      </c>
+      <c r="D110" s="2">
+        <v>-33.513474799999997</v>
+      </c>
+      <c r="E110" s="2">
+        <v>-56.879672100000001</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="B111" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C111" s="2">
-        <v>139</v>
+        <v>186</v>
       </c>
       <c r="D111" s="2">
-        <v>-34.5466792</v>
+        <v>-33.370520599999999</v>
       </c>
       <c r="E111" s="2">
-        <v>-55.874706500000002</v>
+        <v>-56.508191699999998</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="3" t="s">
+      <c r="A112" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B112" s="2">
+        <v>14</v>
+      </c>
+      <c r="C112" s="2">
+        <v>187</v>
+      </c>
+      <c r="D112" s="2">
+        <v>-33.362779199999999</v>
+      </c>
+      <c r="E112" s="2">
+        <v>-56.512091300000002</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B112" s="2">
+      <c r="B113" s="2">
         <v>12</v>
       </c>
-      <c r="C112" s="2">
+      <c r="C113" s="2">
         <v>138</v>
       </c>
-      <c r="D112" s="3">
+      <c r="D113" s="3">
         <v>-33.959460399999998</v>
       </c>
-      <c r="E112" s="3">
+      <c r="E113" s="3">
         <v>-57.091925600000003</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B113" s="2">
-        <v>14</v>
-      </c>
-      <c r="C113" s="2">
-        <v>139</v>
-      </c>
-      <c r="D113" s="2">
-        <v>-33.513474799999997</v>
-      </c>
-      <c r="E113" s="2">
-        <v>-56.879672100000001</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B114" s="2">
-        <v>14</v>
-      </c>
-      <c r="C114" s="2">
-        <v>186</v>
-      </c>
-      <c r="D114" s="2">
-        <v>-33.370520599999999</v>
-      </c>
-      <c r="E114" s="2">
-        <v>-56.508191699999998</v>
+        <v>8</v>
+      </c>
+      <c r="B114" s="3">
+        <v>11</v>
+      </c>
+      <c r="C114" s="3">
+        <v>96</v>
+      </c>
+      <c r="D114" s="3">
+        <v>-34.518438000000003</v>
+      </c>
+      <c r="E114" s="3">
+        <v>-56.3032951</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B115" s="2">
+        <v>19</v>
+      </c>
+      <c r="B115" s="3">
+        <v>11</v>
+      </c>
+      <c r="C115" s="3">
         <v>14</v>
       </c>
-      <c r="C115" s="2">
-        <v>187</v>
-      </c>
-      <c r="D115" s="2">
-        <v>-33.362779199999999</v>
-      </c>
-      <c r="E115" s="2">
-        <v>-56.512091300000002</v>
+      <c r="D115" s="3">
+        <v>-34.358004899999997</v>
+      </c>
+      <c r="E115" s="3">
+        <v>-57.046905000000002</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B116" s="2">
         <v>19</v>
       </c>
-      <c r="C116" s="2">
+      <c r="B116" s="3">
         <v>11</v>
       </c>
-      <c r="D116" s="2">
-        <v>-33.681609999999999</v>
-      </c>
-      <c r="E116" s="2">
-        <v>-53.5609058</v>
+      <c r="C116" s="3">
+        <v>15</v>
+      </c>
+      <c r="D116" s="3">
+        <v>-34.353887499999999</v>
+      </c>
+      <c r="E116" s="3">
+        <v>-57.036854400000003</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B117" s="3">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C117" s="3">
-        <v>323</v>
+        <v>38</v>
       </c>
       <c r="D117" s="3">
-        <v>-33.516751900000003</v>
+        <v>-34.317376500000002</v>
       </c>
       <c r="E117" s="3">
-        <v>-58.197563199999998</v>
+        <v>-56.817136699999999</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B118" s="2">
-        <v>23</v>
-      </c>
-      <c r="C118" s="2">
-        <v>150</v>
+      <c r="A118" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B118" s="3">
+        <v>11</v>
+      </c>
+      <c r="C118" s="3">
+        <v>40</v>
       </c>
       <c r="D118" s="3">
-        <v>-33.969085100000001</v>
+        <v>-34.326614599999999</v>
       </c>
       <c r="E118" s="3">
-        <v>-57.095847599999999</v>
+        <v>-56.798204800000001</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="B119" s="2">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C119" s="2">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="D119" s="2">
-        <v>-30.434780799999999</v>
+        <v>-34.5466792</v>
       </c>
       <c r="E119" s="2">
-        <v>-56.455779800000002</v>
+        <v>-55.874706500000002</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B120" s="2">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C120" s="2">
-        <v>130</v>
+        <v>337</v>
       </c>
       <c r="D120" s="2">
-        <v>-30.420006600000001</v>
+        <v>-33.701708699999998</v>
       </c>
       <c r="E120" s="2">
-        <v>-56.475481000000002</v>
+        <v>-53.453983800000003</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B121" s="2">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C121" s="2">
-        <v>131</v>
+        <v>338</v>
       </c>
       <c r="D121" s="2">
-        <v>-30.422549100000001</v>
+        <v>-33.695153699999999</v>
       </c>
       <c r="E121" s="2">
-        <v>-56.465154800000001</v>
+        <v>-53.447613199999999</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B122" s="2">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C122" s="2">
-        <v>129</v>
+        <v>265</v>
       </c>
       <c r="D122" s="2">
-        <v>-30.414903500000001</v>
+        <v>-34.199694600000001</v>
       </c>
       <c r="E122" s="2">
-        <v>-56.484902499999997</v>
+        <v>-53.848165399999999</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B123" s="2">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C123" s="2">
-        <v>127</v>
+        <v>264</v>
       </c>
       <c r="D123" s="2">
-        <v>-30.426566399999999</v>
+        <v>-34.204125099999999</v>
       </c>
       <c r="E123" s="2">
-        <v>-56.499507600000001</v>
+        <v>-53.852807900000002</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
-        <v>77</v>
+      <c r="A124" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B124" s="2">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C124" s="2">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="D124" s="2">
-        <v>-30.420478299999999</v>
+        <v>-34.784801100000003</v>
       </c>
       <c r="E124" s="2">
-        <v>-56.492145700000002</v>
+        <v>-56.061717600000001</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B125" s="2">
-        <v>55</v>
-      </c>
-      <c r="C125" s="2">
-        <v>14</v>
-      </c>
-      <c r="D125" s="2">
-        <v>-34.027917199999997</v>
-      </c>
-      <c r="E125" s="2">
-        <v>-57.895447500000003</v>
+      <c r="A125" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B125" s="3">
+        <v>8</v>
+      </c>
+      <c r="C125" s="3">
+        <v>20</v>
+      </c>
+      <c r="D125" s="3">
+        <v>-34.7781357</v>
+      </c>
+      <c r="E125" s="3">
+        <v>-56.055548299999998</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B126" s="2">
-        <v>67</v>
+      <c r="A126" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B126" s="3">
+        <v>8</v>
       </c>
       <c r="C126" s="2">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D126" s="2">
-        <v>-34.7062344</v>
+        <v>-34.7763086</v>
       </c>
       <c r="E126" s="2">
-        <v>-56.204045999999998</v>
+        <v>-56.045110399999999</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="B127" s="2">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="C127" s="2">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D127" s="2">
-        <v>-34.713849500000002</v>
+        <v>-34.774492100000003</v>
       </c>
       <c r="E127" s="2">
-        <v>-56.056446999999999</v>
+        <v>-56.034936000000002</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="2" t="s">
-        <v>48</v>
+      <c r="A128" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B128" s="2">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="C128" s="2">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D128" s="2">
-        <v>-34.688074399999998</v>
+        <v>-34.763678900000002</v>
       </c>
       <c r="E128" s="2">
-        <v>-55.968210200000001</v>
+        <v>-56.0177695</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B129" s="3">
-        <v>81</v>
-      </c>
-      <c r="C129" s="3">
-        <v>10</v>
-      </c>
-      <c r="D129" s="3">
-        <v>-34.427339400000001</v>
-      </c>
-      <c r="E129" s="3">
-        <v>-56.286322200000001</v>
+      <c r="A129" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B129" s="2">
+        <v>8</v>
+      </c>
+      <c r="C129" s="2">
+        <v>25</v>
+      </c>
+      <c r="D129" s="2">
+        <v>-34.757755400000001</v>
+      </c>
+      <c r="E129" s="2">
+        <v>-56.009134500000002</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B130" s="3">
-        <v>101</v>
-      </c>
-      <c r="C130" s="3">
-        <v>25</v>
-      </c>
-      <c r="D130" s="3">
-        <v>-34.794794799999998</v>
-      </c>
-      <c r="E130" s="3">
-        <v>-56.002797100000002</v>
+        <v>41</v>
+      </c>
+      <c r="B130" s="2">
+        <v>8</v>
+      </c>
+      <c r="C130" s="2">
+        <v>26</v>
+      </c>
+      <c r="D130" s="2">
+        <v>-34.752346600000003</v>
+      </c>
+      <c r="E130" s="2">
+        <v>-56.000978099999998</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B131" s="2">
-        <v>101</v>
+        <v>8</v>
       </c>
       <c r="C131" s="2">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D131" s="2">
-        <v>-34.787105199999999</v>
+        <v>-34.734550800000001</v>
       </c>
       <c r="E131" s="2">
-        <v>-56.000921400000003</v>
+        <v>-55.975504200000003</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B132" s="3">
-        <v>101</v>
+        <v>8</v>
       </c>
       <c r="C132" s="3">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D132" s="3">
-        <v>-34.794224800000002</v>
+        <v>-34.746390599999998</v>
       </c>
       <c r="E132" s="3">
-        <v>-56.002833000000003</v>
+        <v>-55.992266000000001</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B133" s="2">
-        <v>102</v>
-      </c>
-      <c r="C133" s="2">
-        <v>33</v>
-      </c>
-      <c r="D133" s="2">
-        <v>-34.791499299999998</v>
-      </c>
-      <c r="E133" s="2">
-        <v>-56.112736400000003</v>
+      <c r="A133" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B133" s="3">
+        <v>8</v>
+      </c>
+      <c r="C133" s="3">
+        <v>23</v>
+      </c>
+      <c r="D133" s="3">
+        <v>-34.769955500000002</v>
+      </c>
+      <c r="E133" s="3">
+        <v>-56.025003300000002</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B134" s="3">
-        <v>102</v>
-      </c>
-      <c r="C134" s="3">
-        <v>32</v>
-      </c>
-      <c r="D134" s="3">
-        <v>-34.7914709</v>
-      </c>
-      <c r="E134" s="3">
-        <v>-56.102841499999997</v>
+        <v>36</v>
+      </c>
+      <c r="B134" s="2">
+        <v>8</v>
+      </c>
+      <c r="C134" s="2">
+        <v>22</v>
+      </c>
+      <c r="D134" s="2">
+        <v>-34.774303400000001</v>
+      </c>
+      <c r="E134" s="2">
+        <v>-56.034782300000003</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B135" s="2">
-        <v>102</v>
-      </c>
-      <c r="C135" s="2">
-        <v>31</v>
-      </c>
-      <c r="D135" s="2">
-        <v>-34.793593199999997</v>
-      </c>
-      <c r="E135" s="2">
-        <v>-56.092101399999997</v>
+        <v>8</v>
+      </c>
+      <c r="C135" s="3">
+        <v>21</v>
+      </c>
+      <c r="D135" s="3">
+        <v>-34.776285999999999</v>
+      </c>
+      <c r="E135" s="3">
+        <v>-56.044657700000002</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B136" s="3">
-        <v>102</v>
-      </c>
-      <c r="C136" s="3">
-        <v>28</v>
-      </c>
-      <c r="D136" s="3">
-        <v>-34.796981600000002</v>
-      </c>
-      <c r="E136" s="3">
-        <v>-56.064085800000001</v>
+      <c r="A136" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B136" s="2">
+        <v>8</v>
+      </c>
+      <c r="C136" s="2">
+        <v>20</v>
+      </c>
+      <c r="D136" s="2">
+        <v>-34.777737399999999</v>
+      </c>
+      <c r="E136" s="2">
+        <v>-56.055239899999997</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B137" s="2">
-        <v>102</v>
-      </c>
-      <c r="C137" s="2">
-        <v>27</v>
-      </c>
-      <c r="D137" s="2">
-        <v>-34.802264299999997</v>
-      </c>
-      <c r="E137" s="2">
-        <v>-56.055011299999997</v>
+      <c r="A137" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B137" s="3">
+        <v>8</v>
+      </c>
+      <c r="C137" s="3">
+        <v>19</v>
+      </c>
+      <c r="D137" s="3">
+        <v>-34.7847984</v>
+      </c>
+      <c r="E137" s="3">
+        <v>-56.061906</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="2" t="s">
-        <v>37</v>
+      <c r="A138" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="B138" s="2">
-        <v>102</v>
-      </c>
-      <c r="C138" s="3">
-        <v>26</v>
-      </c>
-      <c r="D138" s="3">
-        <v>-34.8076097</v>
-      </c>
-      <c r="E138" s="3">
-        <v>-56.045830100000003</v>
+        <v>8</v>
+      </c>
+      <c r="C138" s="2">
+        <v>18</v>
+      </c>
+      <c r="D138" s="2">
+        <v>-34.7908008</v>
+      </c>
+      <c r="E138" s="2">
+        <v>-56.067678899999997</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="3" t="s">
-        <v>35</v>
+      <c r="A139" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="B139" s="2">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="C139" s="2">
-        <v>23</v>
+        <v>402</v>
       </c>
       <c r="D139" s="2">
-        <v>-34.818210999999998</v>
+        <v>-32.343396900000002</v>
       </c>
       <c r="E139" s="2">
-        <v>-56.015840400000002</v>
+        <v>-54.168162600000002</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B140" s="3">
-        <v>102</v>
-      </c>
-      <c r="C140" s="3">
-        <v>24</v>
-      </c>
-      <c r="D140" s="3">
-        <v>-34.8163135</v>
-      </c>
-      <c r="E140" s="3">
-        <v>-56.026574599999996</v>
+      <c r="A140" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B140" s="2">
+        <v>8</v>
+      </c>
+      <c r="C140" s="2">
+        <v>280</v>
+      </c>
+      <c r="D140" s="2">
+        <v>-33.200913399999997</v>
+      </c>
+      <c r="E140" s="2">
+        <v>-54.382678900000002</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="3" t="s">
-        <v>35</v>
+      <c r="A141" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="B141" s="2">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="C141" s="2">
-        <v>25</v>
+        <v>288</v>
       </c>
       <c r="D141" s="2">
-        <v>-34.810444699999998</v>
+        <v>-33.205675499999998</v>
       </c>
       <c r="E141" s="2">
-        <v>-56.040668099999998</v>
+        <v>-54.383932799999997</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B142" s="3">
-        <v>102</v>
-      </c>
-      <c r="C142" s="3">
-        <v>27</v>
-      </c>
-      <c r="D142" s="3">
-        <v>-34.8021289</v>
-      </c>
-      <c r="E142" s="3">
-        <v>-56.055015099999999</v>
+      <c r="A142" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B142" s="2">
+        <v>8</v>
+      </c>
+      <c r="C142" s="2">
+        <v>219</v>
+      </c>
+      <c r="D142" s="2">
+        <v>-33.733697499999998</v>
+      </c>
+      <c r="E142" s="2">
+        <v>-54.745128700000002</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B143" s="3">
-        <v>102</v>
-      </c>
-      <c r="C143" s="3">
-        <v>31</v>
-      </c>
-      <c r="D143" s="3">
-        <v>-34.793560200000002</v>
-      </c>
-      <c r="E143" s="3">
-        <v>-56.091317699999998</v>
+      <c r="A143" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B143" s="2">
+        <v>8</v>
+      </c>
+      <c r="C143" s="2">
+        <v>217</v>
+      </c>
+      <c r="D143" s="2">
+        <v>-33.747144800000001</v>
+      </c>
+      <c r="E143" s="2">
+        <v>-54.754930600000002</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="3" t="s">
-        <v>36</v>
+      <c r="A144" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="B144" s="2">
-        <v>102</v>
+        <v>7</v>
       </c>
       <c r="C144" s="2">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="D144" s="2">
-        <v>-34.791544500000001</v>
+        <v>-34.378006599999999</v>
       </c>
       <c r="E144" s="2">
-        <v>-56.102134599999999</v>
+        <v>-55.791219900000002</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B145" s="3">
-        <v>102</v>
-      </c>
-      <c r="C145" s="3">
-        <v>33</v>
-      </c>
-      <c r="D145" s="3">
-        <v>-34.791171800000001</v>
-      </c>
-      <c r="E145" s="3">
-        <v>-56.112250099999997</v>
+      <c r="A145" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B145" s="2">
+        <v>7</v>
+      </c>
+      <c r="C145" s="2">
+        <v>76</v>
+      </c>
+      <c r="D145" s="2">
+        <v>-34.363683199999997</v>
+      </c>
+      <c r="E145" s="2">
+        <v>-55.777944900000001</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B146" s="2">
-        <v>102</v>
+        <v>7</v>
       </c>
       <c r="C146" s="2">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="D146" s="2">
-        <v>-34.794429800000003</v>
+        <v>-34.345411300000002</v>
       </c>
       <c r="E146" s="2">
-        <v>-56.122204699999998</v>
+        <v>-55.759294799999999</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B147" s="2">
-        <v>102</v>
+        <v>7</v>
       </c>
       <c r="C147" s="2">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="D147" s="2">
-        <v>-34.7954741</v>
+        <v>-34.227719899999997</v>
       </c>
       <c r="E147" s="2">
-        <v>-56.133652499999997</v>
+        <v>-55.735616800000003</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B148" s="2">
-        <v>102</v>
+        <v>7</v>
       </c>
       <c r="C148" s="2">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="D148" s="2">
-        <v>-34.796344400000002</v>
+        <v>-34.211428599999998</v>
       </c>
       <c r="E148" s="2">
-        <v>-56.144921099999998</v>
+        <v>-55.744151500000001</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B149" s="2">
-        <v>102</v>
+        <v>7</v>
       </c>
       <c r="C149" s="2">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="D149" s="2">
-        <v>-34.797401000000001</v>
+        <v>-34.195167300000001</v>
       </c>
       <c r="E149" s="2">
-        <v>-56.155912499999999</v>
+        <v>-55.735301300000003</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B150" s="2">
-        <v>102</v>
+        <v>7</v>
       </c>
       <c r="C150" s="2">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="D150" s="2">
-        <v>-34.794561899999998</v>
+        <v>-34.190113199999999</v>
       </c>
       <c r="E150" s="2">
-        <v>-56.1659699</v>
+        <v>-55.726644899999997</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B151" s="2">
-        <v>102</v>
+        <v>7</v>
       </c>
       <c r="C151" s="2">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="D151" s="2">
-        <v>-34.793652700000003</v>
+        <v>-34.1188438</v>
       </c>
       <c r="E151" s="2">
-        <v>-56.176571699999997</v>
+        <v>-55.6707678</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B152" s="2">
-        <v>102</v>
+        <v>7</v>
       </c>
       <c r="C152" s="2">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="D152" s="2">
-        <v>-34.794870400000001</v>
+        <v>-34.1029585</v>
       </c>
       <c r="E152" s="2">
-        <v>-56.187430800000001</v>
+        <v>-55.656573100000003</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B153" s="2">
-        <v>102</v>
+        <v>7</v>
       </c>
       <c r="C153" s="2">
-        <v>43</v>
+        <v>140</v>
       </c>
       <c r="D153" s="2">
-        <v>-34.787939999999999</v>
+        <v>-33.871059600000002</v>
       </c>
       <c r="E153" s="2">
-        <v>-56.217466999999999</v>
+        <v>-55.55509</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B154" s="2">
-        <v>102</v>
+        <v>7</v>
       </c>
       <c r="C154" s="2">
-        <v>46</v>
+        <v>142</v>
       </c>
       <c r="D154" s="2">
-        <v>-34.782985099999998</v>
+        <v>-33.865596400000001</v>
       </c>
       <c r="E154" s="2">
-        <v>-56.246694400000003</v>
+        <v>-55.550547999999999</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B155" s="2">
-        <v>102</v>
+        <v>7</v>
       </c>
       <c r="C155" s="2">
-        <v>47</v>
+        <v>144</v>
       </c>
       <c r="D155" s="2">
-        <v>-34.780559699999998</v>
+        <v>-33.860086500000001</v>
       </c>
       <c r="E155" s="2">
-        <v>-56.256601400000001</v>
+        <v>-55.535391699999998</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="B156" s="2">
-        <v>102</v>
+        <v>7</v>
       </c>
       <c r="C156" s="2">
-        <v>48</v>
+        <v>202</v>
       </c>
       <c r="D156" s="2">
-        <v>-34.775860700000003</v>
+        <v>-33.473594599999998</v>
       </c>
       <c r="E156" s="2">
-        <v>-56.266699899999999</v>
+        <v>-55.162986799999999</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="B157" s="2">
-        <v>102</v>
+        <v>7</v>
       </c>
       <c r="C157" s="2">
-        <v>40</v>
+        <v>204</v>
       </c>
       <c r="D157" s="2">
-        <v>-34.795016099999998</v>
+        <v>-33.475643900000001</v>
       </c>
       <c r="E157" s="2">
-        <v>-56.187792199999997</v>
+        <v>-55.151801300000002</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B158" s="2">
-        <v>102</v>
+        <v>7</v>
       </c>
       <c r="C158" s="2">
-        <v>39</v>
+        <v>206</v>
       </c>
       <c r="D158" s="2">
-        <v>-34.793805200000001</v>
+        <v>-33.463812500000003</v>
       </c>
       <c r="E158" s="2">
-        <v>-56.176998500000003</v>
+        <v>-55.145334300000002</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="B159" s="2">
-        <v>102</v>
+        <v>7</v>
       </c>
       <c r="C159" s="2">
-        <v>38</v>
+        <v>246</v>
       </c>
       <c r="D159" s="2">
-        <v>-34.794558100000003</v>
+        <v>-33.137613799999997</v>
       </c>
       <c r="E159" s="2">
-        <v>-56.166392399999999</v>
+        <v>-55.121232200000001</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="B160" s="2">
-        <v>102</v>
+        <v>7</v>
       </c>
       <c r="C160" s="2">
-        <v>37</v>
+        <v>248</v>
       </c>
       <c r="D160" s="2">
-        <v>-34.797476699999997</v>
+        <v>-33.120181199999998</v>
       </c>
       <c r="E160" s="2">
-        <v>-56.156129300000003</v>
+        <v>-55.1334479</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="B161" s="2">
-        <v>102</v>
+        <v>7</v>
       </c>
       <c r="C161" s="2">
-        <v>36</v>
+        <v>250</v>
       </c>
       <c r="D161" s="2">
-        <v>-34.796491400000001</v>
+        <v>-33.111130899999999</v>
       </c>
       <c r="E161" s="2">
-        <v>-56.145162499999998</v>
+        <v>-55.132203400000002</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B162" s="6" t="s">
-        <v>54</v>
+      <c r="A162" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B162" s="2">
+        <v>7</v>
       </c>
       <c r="C162" s="2">
-        <v>21</v>
+        <v>302</v>
       </c>
       <c r="D162" s="2">
-        <v>-34.831002599999998</v>
+        <v>-32.842680799999997</v>
       </c>
       <c r="E162" s="2">
-        <v>-56.010360499999997</v>
+        <v>-54.7758015</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B163" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C163" s="3">
-        <v>22</v>
-      </c>
-      <c r="D163" s="3">
-        <v>-34.826626900000001</v>
-      </c>
-      <c r="E163" s="3">
-        <v>-56.000459499999998</v>
+      <c r="A163" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B163" s="2">
+        <v>7</v>
+      </c>
+      <c r="C163" s="2">
+        <v>303</v>
+      </c>
+      <c r="D163" s="2">
+        <v>-32.841546899999997</v>
+      </c>
+      <c r="E163" s="2">
+        <v>-54.769051500000003</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B164" s="7" t="s">
-        <v>54</v>
+      <c r="A164" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B164" s="2">
+        <v>7</v>
       </c>
       <c r="C164" s="2">
-        <v>24</v>
+        <v>332</v>
       </c>
       <c r="D164" s="2">
-        <v>-34.8189986</v>
+        <v>-32.656530600000004</v>
       </c>
       <c r="E164" s="2">
-        <v>-55.982176000000003</v>
+        <v>-54.590309400000002</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B165" s="7" t="s">
-        <v>54</v>
+      <c r="A165" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B165" s="2">
+        <v>7</v>
       </c>
       <c r="C165" s="2">
-        <v>28</v>
+        <v>333</v>
       </c>
       <c r="D165" s="2">
-        <v>-34.7981306</v>
+        <v>-32.647982800000001</v>
       </c>
       <c r="E165" s="2">
-        <v>-55.946356999999999</v>
+        <v>-54.592476300000001</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B166" s="7" t="s">
-        <v>54</v>
+      <c r="A166" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B166" s="2">
+        <v>7</v>
       </c>
       <c r="C166" s="2">
-        <v>32</v>
+        <v>334</v>
       </c>
       <c r="D166" s="2">
-        <v>-34.787966500000003</v>
+        <v>-32.637869299999998</v>
       </c>
       <c r="E166" s="2">
-        <v>-55.906641899999997</v>
+        <v>-54.589067100000001</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B167" s="7" t="s">
-        <v>54</v>
+      <c r="A167" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B167" s="2">
+        <v>7</v>
       </c>
       <c r="C167" s="2">
-        <v>34</v>
+        <v>336</v>
       </c>
       <c r="D167" s="2">
-        <v>-34.7838712</v>
+        <v>-32.627207800000001</v>
       </c>
       <c r="E167" s="2">
-        <v>-55.886474800000002</v>
+        <v>-54.5904904</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B168" s="7" t="s">
-        <v>54</v>
+      <c r="A168" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B168" s="2">
+        <v>7</v>
       </c>
       <c r="C168" s="2">
-        <v>35</v>
+        <v>338</v>
       </c>
       <c r="D168" s="2">
-        <v>-34.781312800000002</v>
+        <v>-32.619190000000003</v>
       </c>
       <c r="E168" s="2">
-        <v>-55.876167000000002</v>
+        <v>-54.593009299999999</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B169" s="7" t="s">
-        <v>54</v>
+      <c r="A169" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B169" s="2">
+        <v>7</v>
       </c>
       <c r="C169" s="2">
-        <v>37</v>
+        <v>350</v>
       </c>
       <c r="D169" s="2">
-        <v>-34.777672299999999</v>
+        <v>-32.520221900000003</v>
       </c>
       <c r="E169" s="2">
-        <v>-55.854873699999999</v>
+        <v>-54.546657099999997</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B170" s="7" t="s">
-        <v>54</v>
+      <c r="A170" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B170" s="2">
+        <v>7</v>
       </c>
       <c r="C170" s="2">
-        <v>38</v>
+        <v>351</v>
       </c>
       <c r="D170" s="2">
-        <v>-34.775818700000002</v>
+        <v>-32.518292700000003</v>
       </c>
       <c r="E170" s="2">
-        <v>-55.844082499999999</v>
+        <v>-54.541951699999998</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B171" s="7" t="s">
-        <v>54</v>
+      <c r="A171" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B171" s="2">
+        <v>7</v>
       </c>
       <c r="C171" s="2">
-        <v>39</v>
+        <v>352</v>
       </c>
       <c r="D171" s="2">
-        <v>-34.773882999999998</v>
+        <v>-32.512157700000003</v>
       </c>
       <c r="E171" s="2">
-        <v>-55.833477199999997</v>
+        <v>-54.530456299999997</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B172" s="7" t="s">
-        <v>54</v>
+      <c r="A172" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B172" s="2">
+        <v>7</v>
       </c>
       <c r="C172" s="2">
-        <v>40</v>
+        <v>356</v>
       </c>
       <c r="D172" s="2">
-        <v>-34.772004600000002</v>
+        <v>-32.507873799999999</v>
       </c>
       <c r="E172" s="2">
-        <v>-55.823026900000002</v>
+        <v>-54.520959300000001</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B173" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C173" s="2">
-        <v>41</v>
-      </c>
-      <c r="D173" s="2">
-        <v>-34.770056799999999</v>
-      </c>
-      <c r="E173" s="2">
-        <v>-55.812214300000001</v>
+        <v>7</v>
+      </c>
+      <c r="B173" s="3">
+        <v>5</v>
+      </c>
+      <c r="C173" s="3">
+        <v>37</v>
+      </c>
+      <c r="D173" s="3">
+        <v>-34.601526499999999</v>
+      </c>
+      <c r="E173" s="3">
+        <v>-56.261095300000001</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B174" s="2">
+        <v>5</v>
+      </c>
+      <c r="C174" s="2">
         <v>38</v>
       </c>
-      <c r="B174" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C174" s="2">
+      <c r="D174" s="3">
+        <v>-34.5989468</v>
+      </c>
+      <c r="E174" s="3">
+        <v>-56.261754500000002</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D174" s="2">
-        <v>-34.768110200000002</v>
-      </c>
-      <c r="E174" s="2">
-        <v>-55.801388199999998</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B175" s="7" t="s">
-        <v>54</v>
+      <c r="B175" s="2">
+        <v>5</v>
       </c>
       <c r="C175" s="2">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="D175" s="2">
-        <v>-34.766206500000003</v>
+        <v>-34.863460099999998</v>
       </c>
       <c r="E175" s="2">
-        <v>-55.7907796</v>
+        <v>-56.254009199999999</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B176" s="7" t="s">
-        <v>54</v>
+        <v>42</v>
+      </c>
+      <c r="B176" s="2">
+        <v>5</v>
       </c>
       <c r="C176" s="2">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="D176" s="2">
-        <v>-34.775111199999998</v>
+        <v>-34.855570899999996</v>
       </c>
       <c r="E176" s="2">
-        <v>-55.567978799999999</v>
+        <v>-56.255686799999999</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B177" s="7" t="s">
-        <v>54</v>
+        <v>43</v>
+      </c>
+      <c r="B177" s="2">
+        <v>5</v>
       </c>
       <c r="C177" s="2">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="D177" s="2">
-        <v>-34.769208200000001</v>
+        <v>-34.821584899999998</v>
       </c>
       <c r="E177" s="2">
-        <v>-55.577046000000003</v>
+        <v>-56.254342200000004</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B178" s="7" t="s">
-        <v>54</v>
+        <v>43</v>
+      </c>
+      <c r="B178" s="2">
+        <v>5</v>
       </c>
       <c r="C178" s="2">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="D178" s="2">
-        <v>-34.763328399999999</v>
+        <v>-34.837424800000001</v>
       </c>
       <c r="E178" s="2">
-        <v>-55.585828999999997</v>
+        <v>-56.254040699999997</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B179" s="7" t="s">
-        <v>54</v>
+        <v>43</v>
+      </c>
+      <c r="B179" s="2">
+        <v>5</v>
       </c>
       <c r="C179" s="2">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="D179" s="2">
-        <v>-34.757536100000003</v>
+        <v>-34.846372100000004</v>
       </c>
       <c r="E179" s="2">
-        <v>-55.594458799999998</v>
+        <v>-56.2540665</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B180" s="7" t="s">
-        <v>54</v>
+        <v>71</v>
+      </c>
+      <c r="B180" s="2">
+        <v>5</v>
       </c>
       <c r="C180" s="2">
-        <v>61</v>
+        <v>248</v>
       </c>
       <c r="D180" s="2">
-        <v>-34.754127099999998</v>
+        <v>-32.825285999999998</v>
       </c>
       <c r="E180" s="2">
-        <v>-55.604168799999997</v>
+        <v>-56.498287699999999</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B181" s="7" t="s">
-        <v>54</v>
+        <v>72</v>
+      </c>
+      <c r="B181" s="2">
+        <v>5</v>
       </c>
       <c r="C181" s="2">
-        <v>60</v>
+        <v>378</v>
       </c>
       <c r="D181" s="2">
-        <v>-34.7535095</v>
+        <v>-31.807157499999999</v>
       </c>
       <c r="E181" s="2">
-        <v>-55.614687400000001</v>
+        <v>-55.975929700000002</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B182" s="7" t="s">
-        <v>54</v>
+        <v>73</v>
+      </c>
+      <c r="B182" s="2">
+        <v>5</v>
       </c>
       <c r="C182" s="2">
-        <v>59</v>
+        <v>386</v>
       </c>
       <c r="D182" s="2">
-        <v>-34.752793199999999</v>
+        <v>-31.741326099999998</v>
       </c>
       <c r="E182" s="2">
-        <v>-55.6261267</v>
+        <v>-55.982404699999996</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B183" s="7" t="s">
-        <v>54</v>
+        <v>73</v>
+      </c>
+      <c r="B183" s="2">
+        <v>5</v>
       </c>
       <c r="C183" s="2">
-        <v>58</v>
+        <v>388</v>
       </c>
       <c r="D183" s="2">
-        <v>-34.752128999999996</v>
+        <v>-31.726261699999998</v>
       </c>
       <c r="E183" s="2">
-        <v>-55.636844400000001</v>
+        <v>-55.970872</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B184" s="7" t="s">
-        <v>54</v>
+        <v>73</v>
+      </c>
+      <c r="B184" s="2">
+        <v>5</v>
       </c>
       <c r="C184" s="2">
-        <v>57</v>
+        <v>387</v>
       </c>
       <c r="D184" s="2">
-        <v>-34.751429299999998</v>
+        <v>-31.733282599999999</v>
       </c>
       <c r="E184" s="2">
-        <v>-55.648282500000001</v>
+        <v>-55.976318900000003</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B185" s="7" t="s">
-        <v>54</v>
+        <v>73</v>
+      </c>
+      <c r="B185" s="2">
+        <v>5</v>
       </c>
       <c r="C185" s="2">
-        <v>56</v>
+        <v>394</v>
       </c>
       <c r="D185" s="2">
-        <v>-34.750744400000002</v>
+        <v>-31.690952100000001</v>
       </c>
       <c r="E185" s="2">
-        <v>-55.659243799999999</v>
+        <v>-55.933511000000003</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B186" s="7" t="s">
-        <v>54</v>
+        <v>86</v>
+      </c>
+      <c r="B186" s="2">
+        <v>4</v>
       </c>
       <c r="C186" s="2">
-        <v>55</v>
+        <v>380</v>
       </c>
       <c r="D186" s="2">
-        <v>-34.7500924</v>
+        <v>-32.362075699999998</v>
       </c>
       <c r="E186" s="2">
-        <v>-55.669459699999997</v>
+        <v>-57.209140400000003</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B187" s="7" t="s">
-        <v>54</v>
+        <v>86</v>
+      </c>
+      <c r="B187" s="2">
+        <v>4</v>
       </c>
       <c r="C187" s="2">
-        <v>54</v>
+        <v>381</v>
       </c>
       <c r="D187" s="2">
-        <v>-34.749486099999999</v>
+        <v>-32.353285300000003</v>
       </c>
       <c r="E187" s="2">
-        <v>-55.679443300000003</v>
+        <v>-57.210713300000002</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B188" s="7" t="s">
-        <v>54</v>
+        <v>29</v>
+      </c>
+      <c r="B188" s="2">
+        <v>3</v>
       </c>
       <c r="C188" s="2">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="D188" s="2">
-        <v>-34.749022699999998</v>
+        <v>-34.335922600000004</v>
       </c>
       <c r="E188" s="2">
-        <v>-55.692250199999997</v>
+        <v>-56.731836299999998</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B189" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C189" s="2">
-        <v>52</v>
-      </c>
-      <c r="D189" s="2">
-        <v>-34.749705499999997</v>
-      </c>
-      <c r="E189" s="2">
-        <v>-55.7019643</v>
+        <v>29</v>
+      </c>
+      <c r="B189" s="3">
+        <v>3</v>
+      </c>
+      <c r="C189" s="3">
+        <v>91</v>
+      </c>
+      <c r="D189" s="3">
+        <v>-34.344541900000003</v>
+      </c>
+      <c r="E189" s="3">
+        <v>-56.728681100000003</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B190" s="7" t="s">
-        <v>54</v>
+        <v>30</v>
+      </c>
+      <c r="B190" s="2">
+        <v>3</v>
       </c>
       <c r="C190" s="2">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="D190" s="2">
-        <v>-34.7546812</v>
+        <v>-34.519295</v>
       </c>
       <c r="E190" s="2">
-        <v>-55.723604700000003</v>
+        <v>-56.761322100000001</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B191" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C191" s="2">
-        <v>49</v>
-      </c>
-      <c r="D191" s="2">
-        <v>-34.757863100000002</v>
-      </c>
-      <c r="E191" s="2">
-        <v>-55.732943400000003</v>
+        <v>30</v>
+      </c>
+      <c r="B191" s="3">
+        <v>3</v>
+      </c>
+      <c r="C191" s="3">
+        <v>72</v>
+      </c>
+      <c r="D191" s="3">
+        <v>-34.510340399999997</v>
+      </c>
+      <c r="E191" s="3">
+        <v>-56.762552700000001</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B192" s="7" t="s">
-        <v>54</v>
+        <v>94</v>
+      </c>
+      <c r="B192" s="2">
+        <v>3</v>
       </c>
       <c r="C192" s="2">
-        <v>47</v>
+        <v>624</v>
       </c>
       <c r="D192" s="2">
-        <v>-34.764945500000003</v>
+        <v>-30.263759</v>
       </c>
       <c r="E192" s="2">
-        <v>-55.752173200000001</v>
+        <v>-57.589700200000003</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B193" s="7" t="s">
-        <v>54</v>
+        <v>78</v>
+      </c>
+      <c r="B193" s="2">
+        <v>3</v>
       </c>
       <c r="C193" s="2">
-        <v>46</v>
+        <v>629</v>
       </c>
       <c r="D193" s="2">
-        <v>-34.766418999999999</v>
+        <v>-30.224732599999999</v>
       </c>
       <c r="E193" s="2">
-        <v>-55.762613399999999</v>
+        <v>-57.5697774</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B194" s="7" t="s">
-        <v>54</v>
+        <v>78</v>
+      </c>
+      <c r="B194" s="2">
+        <v>3</v>
       </c>
       <c r="C194" s="2">
-        <v>45</v>
+        <v>627</v>
       </c>
       <c r="D194" s="2">
-        <v>-34.767703699999998</v>
+        <v>-30.239971700000002</v>
       </c>
       <c r="E194" s="2">
-        <v>-55.774704200000002</v>
+        <v>-57.580583699999998</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B195" s="7" t="s">
-        <v>54</v>
+        <v>78</v>
+      </c>
+      <c r="B195" s="2">
+        <v>3</v>
       </c>
       <c r="C195" s="2">
-        <v>44</v>
+        <v>625</v>
       </c>
       <c r="D195" s="2">
-        <v>-34.766315599999999</v>
+        <v>-30.255093599999999</v>
       </c>
       <c r="E195" s="2">
-        <v>-55.785035899999997</v>
+        <v>-57.592210399999999</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B196" s="7" t="s">
-        <v>54</v>
+        <v>96</v>
+      </c>
+      <c r="B196" s="2">
+        <v>3</v>
       </c>
       <c r="C196" s="2">
-        <v>43</v>
+        <v>629</v>
       </c>
       <c r="D196" s="2">
-        <v>-34.766945100000001</v>
+        <v>-30.2247737</v>
       </c>
       <c r="E196" s="2">
-        <v>-55.795778300000002</v>
+        <v>-57.569767400000003</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B197" s="7" t="s">
-        <v>54</v>
+        <v>79</v>
+      </c>
+      <c r="B197" s="2">
+        <v>3</v>
       </c>
       <c r="C197" s="2">
-        <v>40</v>
+        <v>483</v>
       </c>
       <c r="D197" s="2">
-        <v>-34.772754599999999</v>
+        <v>-31.4165414</v>
       </c>
       <c r="E197" s="2">
-        <v>-55.827794599999997</v>
+        <v>-57.940942999999997</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B198" s="7" t="s">
-        <v>54</v>
+        <v>80</v>
+      </c>
+      <c r="B198" s="2">
+        <v>3</v>
       </c>
       <c r="C198" s="2">
-        <v>39</v>
+        <v>479</v>
       </c>
       <c r="D198" s="2">
-        <v>-34.774540399999999</v>
+        <v>-31.445309900000002</v>
       </c>
       <c r="E198" s="2">
-        <v>-55.837724399999999</v>
+        <v>-57.917226399999997</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B199" s="7" t="s">
-        <v>54</v>
+        <v>80</v>
+      </c>
+      <c r="B199" s="2">
+        <v>3</v>
       </c>
       <c r="C199" s="2">
-        <v>38</v>
+        <v>478</v>
       </c>
       <c r="D199" s="2">
-        <v>-34.776378399999999</v>
+        <v>-31.454391699999999</v>
       </c>
       <c r="E199" s="2">
-        <v>-55.848028599999999</v>
+        <v>-57.9099869</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B200" s="7" t="s">
-        <v>54</v>
+        <v>82</v>
+      </c>
+      <c r="B200" s="2">
+        <v>3</v>
       </c>
       <c r="C200" s="2">
-        <v>36</v>
+        <v>453</v>
       </c>
       <c r="D200" s="2">
-        <v>-34.779713200000003</v>
+        <v>-31.659306900000001</v>
       </c>
       <c r="E200" s="2">
-        <v>-55.870215299999998</v>
+        <v>-57.891723399999997</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B201" s="7" t="s">
-        <v>54</v>
+        <v>83</v>
+      </c>
+      <c r="B201" s="2">
+        <v>3</v>
       </c>
       <c r="C201" s="2">
-        <v>44</v>
+        <v>433</v>
       </c>
       <c r="D201" s="2">
-        <v>-34.767148400000004</v>
+        <v>-31.8320963</v>
       </c>
       <c r="E201" s="2">
-        <v>-55.780038900000001</v>
+        <v>-57.887203</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B202" s="7" t="s">
-        <v>54</v>
+        <v>83</v>
+      </c>
+      <c r="B202" s="2">
+        <v>3</v>
       </c>
       <c r="C202" s="2">
-        <v>46</v>
+        <v>431</v>
       </c>
       <c r="D202" s="2">
-        <v>-34.765955400000003</v>
+        <v>-31.8479764</v>
       </c>
       <c r="E202" s="2">
-        <v>-55.758106099999999</v>
+        <v>-57.879711200000003</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B203" s="7" t="s">
-        <v>54</v>
+        <v>83</v>
+      </c>
+      <c r="B203" s="2">
+        <v>3</v>
       </c>
       <c r="C203" s="2">
-        <v>47</v>
+        <v>432</v>
       </c>
       <c r="D203" s="2">
-        <v>-34.764009999999999</v>
+        <v>-31.840779000000001</v>
       </c>
       <c r="E203" s="2">
-        <v>-55.7478354</v>
+        <v>-57.885954699999999</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B204" s="7" t="s">
-        <v>54</v>
+        <v>87</v>
+      </c>
+      <c r="B204" s="2">
+        <v>3</v>
       </c>
       <c r="C204" s="2">
-        <v>48</v>
+        <v>193</v>
       </c>
       <c r="D204" s="2">
-        <v>-34.760048900000001</v>
+        <v>-33.509833999999998</v>
       </c>
       <c r="E204" s="2">
-        <v>-55.7380888</v>
+        <v>-56.925576700000001</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B205" s="7" t="s">
-        <v>54</v>
+        <v>89</v>
+      </c>
+      <c r="B205" s="2">
+        <v>3</v>
       </c>
       <c r="C205" s="2">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="D205" s="2">
-        <v>-34.756493599999999</v>
+        <v>-33.543555599999998</v>
       </c>
       <c r="E205" s="2">
-        <v>-55.7281738</v>
+        <v>-56.884069699999998</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B206" s="7" t="s">
-        <v>54</v>
+        <v>89</v>
+      </c>
+      <c r="B206" s="2">
+        <v>3</v>
       </c>
       <c r="C206" s="2">
-        <v>50</v>
+        <v>185</v>
       </c>
       <c r="D206" s="2">
-        <v>-34.753221600000003</v>
+        <v>-33.552266899999999</v>
       </c>
       <c r="E206" s="2">
-        <v>-55.718584399999997</v>
+        <v>-56.877729500000001</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B207" s="7" t="s">
-        <v>54</v>
+      <c r="A207" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B207" s="2">
+        <v>2</v>
       </c>
       <c r="C207" s="2">
-        <v>52</v>
+        <v>181</v>
       </c>
       <c r="D207" s="2">
-        <v>-34.7494972</v>
+        <v>-33.885865699999997</v>
       </c>
       <c r="E207" s="2">
-        <v>-55.69699</v>
+        <v>-57.372155599999999</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B208" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C208" s="2">
-        <v>53</v>
-      </c>
-      <c r="D208" s="2">
-        <v>-34.749205400000001</v>
-      </c>
-      <c r="E208" s="2">
-        <v>-55.686003100000001</v>
+        <v>12</v>
+      </c>
+      <c r="B208" s="3">
+        <v>1</v>
+      </c>
+      <c r="C208" s="3">
+        <v>29</v>
+      </c>
+      <c r="D208" s="3">
+        <v>-34.756441199999998</v>
+      </c>
+      <c r="E208" s="3">
+        <v>-56.420951000000002</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A209" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B209" s="7" t="s">
-        <v>54</v>
+      <c r="A209" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B209" s="2">
+        <v>1</v>
       </c>
       <c r="C209" s="2">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D209" s="2">
-        <v>-34.749928099999998</v>
+        <v>-34.7510969</v>
       </c>
       <c r="E209" s="2">
-        <v>-55.6744992</v>
+        <v>-56.429968799999997</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A210" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B210" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C210" s="2">
-        <v>55</v>
-      </c>
-      <c r="D210" s="2">
-        <v>-34.750568199999996</v>
-      </c>
-      <c r="E210" s="2">
-        <v>-55.664225000000002</v>
+      <c r="A210" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B210" s="2">
+        <v>1</v>
+      </c>
+      <c r="C210" s="3">
+        <v>31</v>
+      </c>
+      <c r="D210" s="3">
+        <v>-34.745747100000003</v>
+      </c>
+      <c r="E210" s="3">
+        <v>-56.437932600000003</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A211" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B211" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C211" s="2">
-        <v>57</v>
-      </c>
-      <c r="D211" s="2">
-        <v>-34.7532152</v>
-      </c>
-      <c r="E211" s="2">
-        <v>-55.621974199999997</v>
+      <c r="A211" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B211" s="3">
+        <v>1</v>
+      </c>
+      <c r="C211" s="3">
+        <v>29</v>
+      </c>
+      <c r="D211" s="3">
+        <v>-34.756606499999997</v>
+      </c>
+      <c r="E211" s="3">
+        <v>-56.421321800000001</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A212" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B212" s="7" t="s">
-        <v>54</v>
+      <c r="A212" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B212" s="2">
+        <v>1</v>
       </c>
       <c r="C212" s="2">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D212" s="2">
-        <v>-34.752611600000002</v>
+        <v>-34.645799599999997</v>
       </c>
       <c r="E212" s="2">
-        <v>-55.631622399999998</v>
+        <v>-56.618276999999999</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A213" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B213" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C213" s="2">
-        <v>59</v>
-      </c>
-      <c r="D213" s="2">
-        <v>-34.7532888</v>
-      </c>
-      <c r="E213" s="2">
-        <v>-55.620735600000003</v>
+      <c r="A213" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B213" s="3">
+        <v>1</v>
+      </c>
+      <c r="C213" s="3">
+        <v>52</v>
+      </c>
+      <c r="D213" s="3">
+        <v>-34.641230499999999</v>
+      </c>
+      <c r="E213" s="3">
+        <v>-56.627981499999997</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B214" s="7" t="s">
-        <v>54</v>
+        <v>17</v>
+      </c>
+      <c r="B214" s="2">
+        <v>1</v>
       </c>
       <c r="C214" s="2">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="D214" s="2">
-        <v>-34.753976100000003</v>
+        <v>-34.365900600000003</v>
       </c>
       <c r="E214" s="2">
-        <v>-55.609915700000002</v>
+        <v>-57.052692700000001</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B215" s="7" t="s">
-        <v>54</v>
+        <v>20</v>
+      </c>
+      <c r="B215" s="2">
+        <v>1</v>
       </c>
       <c r="C215" s="2">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="D215" s="2">
-        <v>-34.755028600000003</v>
+        <v>-34.337679399999999</v>
       </c>
       <c r="E215" s="2">
-        <v>-55.599263399999998</v>
+        <v>-57.249334599999997</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B216" s="7" t="s">
-        <v>54</v>
+        <v>20</v>
+      </c>
+      <c r="B216" s="2">
+        <v>1</v>
       </c>
       <c r="C216" s="2">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="D216" s="2">
-        <v>-34.760369300000001</v>
+        <v>-34.334929899999999</v>
       </c>
       <c r="E216" s="2">
-        <v>-55.590527600000001</v>
+        <v>-57.2709233</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B217" s="7" t="s">
-        <v>54</v>
+        <v>20</v>
+      </c>
+      <c r="B217" s="2">
+        <v>1</v>
       </c>
       <c r="C217" s="2">
-        <v>63</v>
+        <v>121</v>
       </c>
       <c r="D217" s="2">
-        <v>-34.765885099999998</v>
+        <v>-34.3363078</v>
       </c>
       <c r="E217" s="2">
-        <v>-55.582346200000003</v>
+        <v>-57.260794300000001</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B218" s="7" t="s">
-        <v>54</v>
+        <v>42</v>
+      </c>
+      <c r="B218" s="2">
+        <v>1</v>
       </c>
       <c r="C218" s="2">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="D218" s="2">
-        <v>-34.771803300000002</v>
+        <v>-34.871734600000003</v>
       </c>
       <c r="E218" s="2">
-        <v>-55.573514699999997</v>
+        <v>-56.217147199999999</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B219" s="7" t="s">
-        <v>54</v>
+        <v>42</v>
+      </c>
+      <c r="B219" s="2">
+        <v>1</v>
       </c>
       <c r="C219" s="2">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="D219" s="2">
-        <v>-34.781058299999998</v>
+        <v>-34.8727345</v>
       </c>
       <c r="E219" s="2">
-        <v>-55.875745000000002</v>
+        <v>-56.237084400000001</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B220" s="7" t="s">
-        <v>54</v>
+        <v>43</v>
+      </c>
+      <c r="B220" s="2">
+        <v>1</v>
       </c>
       <c r="C220" s="2">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="D220" s="2">
-        <v>-34.788497399999997</v>
+        <v>-34.870019300000003</v>
       </c>
       <c r="E220" s="2">
-        <v>-55.894941699999997</v>
+        <v>-56.2272368</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B221" s="7" t="s">
-        <v>54</v>
+        <v>43</v>
+      </c>
+      <c r="B221" s="2">
+        <v>1</v>
       </c>
       <c r="C221" s="2">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="D221" s="2">
-        <v>-34.803625400000001</v>
+        <v>-34.871604499999997</v>
       </c>
       <c r="E221" s="2">
-        <v>-55.9548822</v>
+        <v>-56.217585700000001</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B222" s="7" t="s">
-        <v>54</v>
+        <v>68</v>
+      </c>
+      <c r="B222" s="2">
+        <v>1</v>
       </c>
       <c r="C222" s="2">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="D222" s="2">
-        <v>-34.814089099999997</v>
+        <v>-34.371451200000003</v>
       </c>
       <c r="E222" s="2">
-        <v>-55.970489299999997</v>
+        <v>-57.043962200000003</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B223" s="7" t="s">
-        <v>54</v>
+        <v>68</v>
+      </c>
+      <c r="B223" s="2">
+        <v>1</v>
       </c>
       <c r="C223" s="2">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="D223" s="2">
-        <v>-34.822414199999997</v>
+        <v>-34.3611808</v>
       </c>
       <c r="E223" s="2">
-        <v>-55.991558400000002</v>
+        <v>-57.063292699999998</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
@@ -10099,7 +10111,7 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E225">
-    <sortCondition ref="B1:B225"/>
+    <sortCondition descending="1" ref="B1:B225"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/radares_geolocalizacion.xlsx
+++ b/radares_geolocalizacion.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fpino\OneDrive - CSI Ingenieros - CIEMSA\Escritorio\Automatizaciones\Radares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fpino\OneDrive - CSI Ingenieros - CIEMSA\Escritorio\dev\master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A635B5B-0B51-43EC-AA58-43ADE8F36079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF8AD2D5-C060-46C3-99B9-8037BB747B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-975" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-975" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Linea Base" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="235">
   <si>
     <t>Nombre de video</t>
   </si>
@@ -967,7 +967,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1022,6 +1022,14 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4842,20 +4850,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A2CC30-B04A-4F4A-B9CB-C95B4F839A52}">
-  <dimension ref="A1:E102"/>
+  <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C89" sqref="A89:C89"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H100" sqref="H100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5546875"/>
-    <col min="2" max="3" width="12.5546875" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="12.5546875" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -4865,11 +4873,14 @@
       <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>46</v>
       </c>
@@ -4879,11 +4890,14 @@
       <c r="C2" s="10">
         <v>-56.002303599999998</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="44">
+        <v>200</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>47</v>
       </c>
@@ -4893,11 +4907,14 @@
       <c r="C3" s="9">
         <v>-55.998949600000003</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="45">
+        <v>200</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>38</v>
       </c>
@@ -4907,11 +4924,14 @@
       <c r="C4" s="9">
         <v>-55.954160999999999</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="45">
+        <v>200</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>38</v>
       </c>
@@ -4921,11 +4941,14 @@
       <c r="C5" s="9">
         <v>-55.873260000000002</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="45">
+        <v>200</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>47</v>
       </c>
@@ -4935,11 +4958,14 @@
       <c r="C6" s="9">
         <v>-55.871923099999997</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="45">
+        <v>200</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>38</v>
       </c>
@@ -4949,11 +4975,14 @@
       <c r="C7" s="17">
         <v>-55.857360800000002</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="45">
+        <v>200</v>
+      </c>
+      <c r="E7" s="18" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>40</v>
       </c>
@@ -4963,11 +4992,14 @@
       <c r="C8" s="9">
         <v>-55.823006800000002</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="45">
+        <v>200</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>38</v>
       </c>
@@ -4977,14 +5009,17 @@
       <c r="C9" s="9">
         <v>-55.821438499999999</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="45">
+        <v>200</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
@@ -4994,11 +5029,14 @@
       <c r="C10" s="9">
         <v>-56.703671800000002</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="45">
+        <v>1</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
@@ -5008,11 +5046,14 @@
       <c r="C11" s="10">
         <v>-57.259965800000003</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="44">
+        <v>1</v>
+      </c>
+      <c r="E11" s="12" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
@@ -5022,11 +5063,14 @@
       <c r="C12" s="9">
         <v>-57.815629999999999</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="45">
+        <v>1</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -5036,11 +5080,14 @@
       <c r="C13" s="10">
         <v>-57.0504927</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="44">
+        <v>1</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>68</v>
       </c>
@@ -5050,11 +5097,14 @@
       <c r="C14" s="9">
         <v>-57.059014400000002</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="45">
+        <v>1</v>
+      </c>
+      <c r="E14" s="13" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>34</v>
       </c>
@@ -5064,11 +5114,14 @@
       <c r="C15" s="10">
         <v>-56.0015517</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="44">
+        <v>101</v>
+      </c>
+      <c r="E15" s="14" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>32</v>
       </c>
@@ -5078,11 +5131,14 @@
       <c r="C16" s="9">
         <v>-56.003157100000003</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="44">
+        <v>101</v>
+      </c>
+      <c r="E16" s="14" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>44</v>
       </c>
@@ -5092,11 +5148,14 @@
       <c r="C17" s="9">
         <v>-56.021951199999997</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="45">
+        <v>8</v>
+      </c>
+      <c r="E17" s="14" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>36</v>
       </c>
@@ -5106,11 +5165,14 @@
       <c r="C18" s="10">
         <v>-56.008850700000004</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="44">
+        <v>8</v>
+      </c>
+      <c r="E18" s="14" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>78</v>
       </c>
@@ -5120,14 +5182,17 @@
       <c r="C19" s="9">
         <v>-57.583912499999997</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="45">
+        <v>3</v>
+      </c>
+      <c r="E19" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>67</v>
       </c>
@@ -5137,11 +5202,14 @@
       <c r="C20" s="9">
         <v>-53.8524654</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="45">
+        <v>9</v>
+      </c>
+      <c r="E20" s="14" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>66</v>
       </c>
@@ -5151,11 +5219,14 @@
       <c r="C21" s="9">
         <v>-53.4474619</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="45">
+        <v>9</v>
+      </c>
+      <c r="E21" s="14" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
@@ -5165,11 +5236,14 @@
       <c r="C22" s="10">
         <v>-56.624226200000003</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="44">
+        <v>1</v>
+      </c>
+      <c r="E22" s="13" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>7</v>
       </c>
@@ -5179,11 +5253,14 @@
       <c r="C23" s="9">
         <v>-56.262855600000002</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="45">
+        <v>5</v>
+      </c>
+      <c r="E23" s="14" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>19</v>
       </c>
@@ -5193,11 +5270,14 @@
       <c r="C24" s="9">
         <v>-57.040420599999997</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="45">
+        <v>11</v>
+      </c>
+      <c r="E24" s="12" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>40</v>
       </c>
@@ -5207,11 +5287,14 @@
       <c r="C25" s="10">
         <v>-55.578742900000002</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="44">
+        <v>200</v>
+      </c>
+      <c r="E25" s="14" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>28</v>
       </c>
@@ -5221,11 +5304,14 @@
       <c r="C26" s="10">
         <v>-56.800864300000001</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="44">
+        <v>11</v>
+      </c>
+      <c r="E26" s="12" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
@@ -5235,11 +5321,14 @@
       <c r="C27" s="9">
         <v>-57.092161300000001</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="45">
+        <v>23</v>
+      </c>
+      <c r="E27" s="14" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>77</v>
       </c>
@@ -5249,11 +5338,14 @@
       <c r="C28" s="9">
         <v>-56.4898831</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="45">
+        <v>30</v>
+      </c>
+      <c r="E28" s="14" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>75</v>
       </c>
@@ -5263,14 +5355,17 @@
       <c r="C29" s="9">
         <v>-56.458178099999998</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="45">
+        <v>30</v>
+      </c>
+      <c r="E29" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
@@ -5280,11 +5375,14 @@
       <c r="C30" s="9">
         <v>-56.807663599999998</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="45">
+        <v>11</v>
+      </c>
+      <c r="E30" s="12" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>76</v>
       </c>
@@ -5294,11 +5392,14 @@
       <c r="C31" s="9">
         <v>-56.4664675</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="45">
+        <v>30</v>
+      </c>
+      <c r="E31" s="14" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
         <v>24</v>
       </c>
@@ -5308,14 +5409,17 @@
       <c r="C32" s="20">
         <v>-58.202036999999997</v>
       </c>
-      <c r="D32" s="35" t="s">
+      <c r="D32" s="46">
+        <v>21</v>
+      </c>
+      <c r="E32" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>70</v>
       </c>
@@ -5325,11 +5429,14 @@
       <c r="C33" s="9">
         <v>-56.509189399999997</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="D33" s="45">
+        <v>5</v>
+      </c>
+      <c r="E33" s="14" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>71</v>
       </c>
@@ -5339,11 +5446,14 @@
       <c r="C34" s="9">
         <v>-56.498287699999999</v>
       </c>
-      <c r="D34" s="14" t="s">
+      <c r="D34" s="45">
+        <v>5</v>
+      </c>
+      <c r="E34" s="14" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>72</v>
       </c>
@@ -5353,11 +5463,14 @@
       <c r="C35" s="9">
         <v>-55.975533300000002</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="D35" s="45">
+        <v>5</v>
+      </c>
+      <c r="E35" s="14" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>73</v>
       </c>
@@ -5367,11 +5480,14 @@
       <c r="C36" s="9">
         <v>-55.982280299999999</v>
       </c>
-      <c r="D36" s="14" t="s">
+      <c r="D36" s="45">
+        <v>5</v>
+      </c>
+      <c r="E36" s="14" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>74</v>
       </c>
@@ -5381,11 +5497,14 @@
       <c r="C37" s="9">
         <v>-55.941409</v>
       </c>
-      <c r="D37" s="14" t="s">
+      <c r="D37" s="45">
+        <v>5</v>
+      </c>
+      <c r="E37" s="14" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="19" t="s">
         <v>74</v>
       </c>
@@ -5395,14 +5514,17 @@
       <c r="C38" s="20">
         <v>-55.938369799999997</v>
       </c>
-      <c r="D38" s="36" t="s">
+      <c r="D38" s="46">
+        <v>5</v>
+      </c>
+      <c r="E38" s="36" t="s">
         <v>224</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>62</v>
       </c>
@@ -5412,11 +5534,14 @@
       <c r="C39" s="9">
         <v>-54.152728400000001</v>
       </c>
-      <c r="D39" s="14" t="s">
+      <c r="D39" s="45">
+        <v>7</v>
+      </c>
+      <c r="E39" s="14" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>62</v>
       </c>
@@ -5426,14 +5551,17 @@
       <c r="C40" s="9">
         <v>-54.168310200000001</v>
       </c>
-      <c r="D40" s="14" t="s">
+      <c r="D40" s="45">
+        <v>8</v>
+      </c>
+      <c r="E40" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>61</v>
       </c>
@@ -5443,11 +5571,14 @@
       <c r="C41" s="9">
         <v>-54.212487899999999</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="D41" s="45">
+        <v>26</v>
+      </c>
+      <c r="E41" s="13" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>63</v>
       </c>
@@ -5457,11 +5588,14 @@
       <c r="C42" s="9">
         <v>-54.383471800000002</v>
       </c>
-      <c r="D42" s="13" t="s">
+      <c r="D42" s="45">
+        <v>8</v>
+      </c>
+      <c r="E42" s="13" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>64</v>
       </c>
@@ -5471,11 +5605,14 @@
       <c r="C43" s="9">
         <v>-54.754349499999996</v>
       </c>
-      <c r="D43" s="14" t="s">
+      <c r="D43" s="45">
+        <v>8</v>
+      </c>
+      <c r="E43" s="14" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>65</v>
       </c>
@@ -5485,11 +5622,14 @@
       <c r="C44" s="9">
         <v>-53.549693400000002</v>
       </c>
-      <c r="D44" s="14" t="s">
+      <c r="D44" s="45">
+        <v>19</v>
+      </c>
+      <c r="E44" s="14" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>35</v>
       </c>
@@ -5499,11 +5639,14 @@
       <c r="C45" s="9">
         <v>-56.0241744</v>
       </c>
-      <c r="D45" s="14" t="s">
+      <c r="D45" s="45">
+        <v>102</v>
+      </c>
+      <c r="E45" s="14" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>12</v>
       </c>
@@ -5513,11 +5656,14 @@
       <c r="C46" s="10">
         <v>-56.420951000000002</v>
       </c>
-      <c r="D46" s="12" t="s">
+      <c r="D46" s="44">
+        <v>1</v>
+      </c>
+      <c r="E46" s="12" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>14</v>
       </c>
@@ -5527,11 +5673,14 @@
       <c r="C47" s="9">
         <v>-56.424495999999998</v>
       </c>
-      <c r="D47" s="12" t="s">
+      <c r="D47" s="45">
+        <v>1</v>
+      </c>
+      <c r="E47" s="12" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>87</v>
       </c>
@@ -5541,11 +5690,14 @@
       <c r="C48" s="9">
         <v>-56.911199000000003</v>
       </c>
-      <c r="D48" s="13" t="s">
+      <c r="D48" s="45">
+        <v>14</v>
+      </c>
+      <c r="E48" s="13" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>89</v>
       </c>
@@ -5555,11 +5707,14 @@
       <c r="C49" s="9">
         <v>-56.892353100000001</v>
       </c>
-      <c r="D49" s="13" t="s">
+      <c r="D49" s="45">
+        <v>3</v>
+      </c>
+      <c r="E49" s="13" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>69</v>
       </c>
@@ -5569,11 +5724,14 @@
       <c r="C50" s="9">
         <v>-56.883106400000003</v>
       </c>
-      <c r="D50" s="13" t="s">
+      <c r="D50" s="45">
+        <v>14</v>
+      </c>
+      <c r="E50" s="13" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>88</v>
       </c>
@@ -5583,11 +5741,14 @@
       <c r="C51" s="9">
         <v>-56.884320299999999</v>
       </c>
-      <c r="D51" s="13" t="s">
+      <c r="D51" s="45">
+        <v>14</v>
+      </c>
+      <c r="E51" s="13" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>30</v>
       </c>
@@ -5597,14 +5758,17 @@
       <c r="C52" s="10">
         <v>-56.762297699999998</v>
       </c>
-      <c r="D52" s="12" t="s">
+      <c r="D52" s="44">
+        <v>3</v>
+      </c>
+      <c r="E52" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>30</v>
       </c>
@@ -5614,11 +5778,14 @@
       <c r="C53" s="9">
         <v>-56.761255900000002</v>
       </c>
-      <c r="D53" s="12" t="s">
+      <c r="D53" s="45">
+        <v>3</v>
+      </c>
+      <c r="E53" s="12" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>29</v>
       </c>
@@ -5628,11 +5795,14 @@
       <c r="C54" s="9">
         <v>-56.731166000000002</v>
       </c>
-      <c r="D54" s="12" t="s">
+      <c r="D54" s="45">
+        <v>3</v>
+      </c>
+      <c r="E54" s="12" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>49</v>
       </c>
@@ -5642,11 +5812,14 @@
       <c r="C55" s="9">
         <v>-55.869084600000001</v>
       </c>
-      <c r="D55" s="13" t="s">
+      <c r="D55" s="45">
+        <v>11</v>
+      </c>
+      <c r="E55" s="13" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>49</v>
       </c>
@@ -5656,11 +5829,14 @@
       <c r="C56" s="9">
         <v>-55.876370799999997</v>
       </c>
-      <c r="D56" s="14" t="s">
+      <c r="D56" s="45">
+        <v>11</v>
+      </c>
+      <c r="E56" s="14" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>10</v>
       </c>
@@ -5670,11 +5846,14 @@
       <c r="C57" s="10">
         <v>-56.377681500000001</v>
       </c>
-      <c r="D57" s="12" t="s">
+      <c r="D57" s="44">
+        <v>11</v>
+      </c>
+      <c r="E57" s="12" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>8</v>
       </c>
@@ -5684,11 +5863,14 @@
       <c r="C58" s="9">
         <v>-56.298338299999998</v>
       </c>
-      <c r="D58" s="12" t="s">
+      <c r="D58" s="45">
+        <v>11</v>
+      </c>
+      <c r="E58" s="12" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>42</v>
       </c>
@@ -5698,11 +5880,14 @@
       <c r="C59" s="9">
         <v>-56.233092399999997</v>
       </c>
-      <c r="D59" s="14" t="s">
+      <c r="D59" s="45">
+        <v>1</v>
+      </c>
+      <c r="E59" s="14" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>50</v>
       </c>
@@ -5712,11 +5897,14 @@
       <c r="C60" s="9">
         <v>-55.767657</v>
       </c>
-      <c r="D60" s="14" t="s">
+      <c r="D60" s="45">
+        <v>7</v>
+      </c>
+      <c r="E60" s="14" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>50</v>
       </c>
@@ -5726,11 +5914,14 @@
       <c r="C61" s="9">
         <v>-55.754062400000002</v>
       </c>
-      <c r="D61" s="14" t="s">
+      <c r="D61" s="45">
+        <v>7</v>
+      </c>
+      <c r="E61" s="14" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>51</v>
       </c>
@@ -5740,14 +5931,17 @@
       <c r="C62" s="9">
         <v>-55.743663499999997</v>
       </c>
-      <c r="D62" s="14" t="s">
+      <c r="D62" s="45">
+        <v>7</v>
+      </c>
+      <c r="E62" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>52</v>
       </c>
@@ -5757,11 +5951,14 @@
       <c r="C63" s="9">
         <v>-55.658239600000002</v>
       </c>
-      <c r="D63" s="14" t="s">
+      <c r="D63" s="45">
+        <v>7</v>
+      </c>
+      <c r="E63" s="14" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>53</v>
       </c>
@@ -5771,11 +5968,14 @@
       <c r="C64" s="9">
         <v>-55.550547999999999</v>
       </c>
-      <c r="D64" s="14" t="s">
+      <c r="D64" s="45">
+        <v>7</v>
+      </c>
+      <c r="E64" s="14" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>55</v>
       </c>
@@ -5785,11 +5985,14 @@
       <c r="C65" s="9">
         <v>-55.536468800000002</v>
       </c>
-      <c r="D65" s="14" t="s">
+      <c r="D65" s="45">
+        <v>7</v>
+      </c>
+      <c r="E65" s="14" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>43</v>
       </c>
@@ -5799,11 +6002,14 @@
       <c r="C66" s="9">
         <v>-56.204651900000002</v>
       </c>
-      <c r="D66" s="14" t="s">
+      <c r="D66" s="45" t="s">
+        <v>226</v>
+      </c>
+      <c r="E66" s="14" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>40</v>
       </c>
@@ -5813,11 +6019,14 @@
       <c r="C67" s="10">
         <v>-56.205157800000002</v>
       </c>
-      <c r="D67" s="13" t="s">
+      <c r="D67" s="44" t="s">
+        <v>226</v>
+      </c>
+      <c r="E67" s="13" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>31</v>
       </c>
@@ -5827,11 +6036,14 @@
       <c r="C68" s="10">
         <v>-56.098802800000001</v>
       </c>
-      <c r="D68" s="12" t="s">
+      <c r="D68" s="44">
+        <v>102</v>
+      </c>
+      <c r="E68" s="12" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>36</v>
       </c>
@@ -5841,11 +6053,14 @@
       <c r="C69" s="10">
         <v>-56.097112199999998</v>
       </c>
-      <c r="D69" s="13" t="s">
+      <c r="D69" s="44">
+        <v>102</v>
+      </c>
+      <c r="E69" s="13" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>43</v>
       </c>
@@ -5855,11 +6070,14 @@
       <c r="C70" s="10">
         <v>-56.151683599999998</v>
       </c>
-      <c r="D70" s="14" t="s">
+      <c r="D70" s="44">
+        <v>102</v>
+      </c>
+      <c r="E70" s="14" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>45</v>
       </c>
@@ -5869,11 +6087,14 @@
       <c r="C71" s="9">
         <v>-56.245448799999998</v>
       </c>
-      <c r="D71" s="13" t="s">
+      <c r="D71" s="45">
+        <v>102</v>
+      </c>
+      <c r="E71" s="13" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>56</v>
       </c>
@@ -5883,14 +6104,17 @@
       <c r="C72" s="9">
         <v>-55.152318700000002</v>
       </c>
-      <c r="D72" s="13" t="s">
+      <c r="D72" s="45">
+        <v>7</v>
+      </c>
+      <c r="E72" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>57</v>
       </c>
@@ -5900,11 +6124,14 @@
       <c r="C73" s="9">
         <v>-55.131984899999999</v>
       </c>
-      <c r="D73" s="14" t="s">
+      <c r="D73" s="45">
+        <v>7</v>
+      </c>
+      <c r="E73" s="14" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>86</v>
       </c>
@@ -5914,11 +6141,14 @@
       <c r="C74" s="9">
         <v>-57.2092703</v>
       </c>
-      <c r="D74" s="14" t="s">
+      <c r="D74" s="45">
+        <v>4</v>
+      </c>
+      <c r="E74" s="14" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>58</v>
       </c>
@@ -5928,11 +6158,14 @@
       <c r="C75" s="9">
         <v>-54.955321099999999</v>
       </c>
-      <c r="D75" s="14" t="s">
+      <c r="D75" s="45">
+        <v>7</v>
+      </c>
+      <c r="E75" s="14" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>58</v>
       </c>
@@ -5942,11 +6175,14 @@
       <c r="C76" s="9">
         <v>-54.929890100000001</v>
       </c>
-      <c r="D76" s="14" t="s">
+      <c r="D76" s="45">
+        <v>7</v>
+      </c>
+      <c r="E76" s="14" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>59</v>
       </c>
@@ -5956,11 +6192,14 @@
       <c r="C77" s="9">
         <v>-54.765693200000001</v>
       </c>
-      <c r="D77" s="14" t="s">
+      <c r="D77" s="45">
+        <v>7</v>
+      </c>
+      <c r="E77" s="14" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>60</v>
       </c>
@@ -5970,11 +6209,14 @@
       <c r="C78" s="9">
         <v>-54.541922999999997</v>
       </c>
-      <c r="D78" s="14" t="s">
+      <c r="D78" s="45">
+        <v>7</v>
+      </c>
+      <c r="E78" s="14" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>60</v>
       </c>
@@ -5984,11 +6226,14 @@
       <c r="C79" s="9">
         <v>-54.515222299999998</v>
       </c>
-      <c r="D79" s="14" t="s">
+      <c r="D79" s="45">
+        <v>7</v>
+      </c>
+      <c r="E79" s="14" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>83</v>
       </c>
@@ -5998,11 +6243,14 @@
       <c r="C80" s="9">
         <v>-57.885954699999999</v>
       </c>
-      <c r="D80" s="13" t="s">
+      <c r="D80" s="45">
+        <v>3</v>
+      </c>
+      <c r="E80" s="13" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>81</v>
       </c>
@@ -6012,11 +6260,14 @@
       <c r="C81" s="9">
         <v>-57.904645799999997</v>
       </c>
-      <c r="D81" s="13" t="s">
+      <c r="D81" s="45">
+        <v>3</v>
+      </c>
+      <c r="E81" s="13" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>80</v>
       </c>
@@ -6026,14 +6277,17 @@
       <c r="C82" s="9">
         <v>-57.913722999999997</v>
       </c>
-      <c r="D82" s="13" t="s">
+      <c r="D82" s="45">
+        <v>3</v>
+      </c>
+      <c r="E82" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="E82" t="s">
+      <c r="F82" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>79</v>
       </c>
@@ -6043,11 +6297,14 @@
       <c r="C83" s="9">
         <v>-57.9413318</v>
       </c>
-      <c r="D83" s="14" t="s">
+      <c r="D83" s="45">
+        <v>3</v>
+      </c>
+      <c r="E83" s="14" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>22</v>
       </c>
@@ -6057,11 +6314,14 @@
       <c r="C84" s="9">
         <v>-57.837290299999999</v>
       </c>
-      <c r="D84" s="12" t="s">
+      <c r="D84" s="45">
+        <v>21</v>
+      </c>
+      <c r="E84" s="12" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>23</v>
       </c>
@@ -6071,11 +6331,14 @@
       <c r="C85" s="9">
         <v>-57.8996998</v>
       </c>
-      <c r="D85" s="12" t="s">
+      <c r="D85" s="45">
+        <v>55</v>
+      </c>
+      <c r="E85" s="12" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>25</v>
       </c>
@@ -6085,11 +6348,14 @@
       <c r="C86" s="10">
         <v>-58.288347700000003</v>
       </c>
-      <c r="D86" s="12" t="s">
+      <c r="D86" s="44">
+        <v>21</v>
+      </c>
+      <c r="E86" s="12" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>9</v>
       </c>
@@ -6099,11 +6365,14 @@
       <c r="C87" s="9">
         <v>-56.282217600000003</v>
       </c>
-      <c r="D87" s="13" t="s">
+      <c r="D87" s="45">
+        <v>81</v>
+      </c>
+      <c r="E87" s="13" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>15</v>
       </c>
@@ -6113,11 +6382,14 @@
       <c r="C88" s="10">
         <v>-56.068053300000003</v>
       </c>
-      <c r="D88" s="12" t="s">
+      <c r="D88" s="44">
+        <v>107</v>
+      </c>
+      <c r="E88" s="12" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>6</v>
       </c>
@@ -6127,11 +6399,14 @@
       <c r="C89" s="9">
         <v>-56.201969499999997</v>
       </c>
-      <c r="D89" s="12" t="s">
+      <c r="D89" s="45">
+        <v>67</v>
+      </c>
+      <c r="E89" s="12" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="38" t="s">
         <v>6</v>
       </c>
@@ -6141,11 +6416,14 @@
       <c r="C90" s="40">
         <v>-56.204990500000001</v>
       </c>
-      <c r="D90" s="41" t="s">
+      <c r="D90" s="47">
+        <v>67</v>
+      </c>
+      <c r="E90" s="41" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>13</v>
       </c>
@@ -6155,11 +6433,14 @@
       <c r="C91" s="10">
         <v>-56.070499099999999</v>
       </c>
-      <c r="D91" s="12" t="s">
+      <c r="D91" s="44">
+        <v>107</v>
+      </c>
+      <c r="E91" s="12" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>36</v>
       </c>
@@ -6169,11 +6450,14 @@
       <c r="C92" s="9">
         <v>-56.019251300000001</v>
       </c>
-      <c r="D92" s="14" t="s">
+      <c r="D92" s="45">
+        <v>74</v>
+      </c>
+      <c r="E92" s="14" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>11</v>
       </c>
@@ -6183,11 +6467,14 @@
       <c r="C93" s="9">
         <v>-56.051596600000003</v>
       </c>
-      <c r="D93" s="12" t="s">
+      <c r="D93" s="45">
+        <v>74</v>
+      </c>
+      <c r="E93" s="12" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>48</v>
       </c>
@@ -6197,11 +6484,14 @@
       <c r="C94" s="10">
         <v>-55.968122999999999</v>
       </c>
-      <c r="D94" s="13" t="s">
+      <c r="D94" s="44">
+        <v>75</v>
+      </c>
+      <c r="E94" s="13" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>84</v>
       </c>
@@ -6211,11 +6501,14 @@
       <c r="C95" s="9">
         <v>-58.003717999999999</v>
       </c>
-      <c r="D95" s="13" t="s">
+      <c r="D95" s="45">
+        <v>3</v>
+      </c>
+      <c r="E95" s="13" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>82</v>
       </c>
@@ -6225,11 +6518,14 @@
       <c r="C96" s="9">
         <v>-57.8914878</v>
       </c>
-      <c r="D96" s="13" t="s">
+      <c r="D96" s="45">
+        <v>3</v>
+      </c>
+      <c r="E96" s="13" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>85</v>
       </c>
@@ -6239,11 +6535,14 @@
       <c r="C97" s="9">
         <v>-58.045538200000003</v>
       </c>
-      <c r="D97" s="13" t="s">
+      <c r="D97" s="45">
+        <v>101</v>
+      </c>
+      <c r="E97" s="13" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>38</v>
       </c>
@@ -6253,11 +6552,14 @@
       <c r="C98" s="10">
         <v>-55.890081100000003</v>
       </c>
-      <c r="D98" s="13" t="s">
+      <c r="D98" s="44">
+        <v>101</v>
+      </c>
+      <c r="E98" s="13" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>47</v>
       </c>
@@ -6267,28 +6569,34 @@
       <c r="C99" s="10">
         <v>-55.8873611</v>
       </c>
-      <c r="D99" s="13" t="s">
+      <c r="D99" s="44">
+        <v>101</v>
+      </c>
+      <c r="E99" s="13" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D100" s="42"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D101" s="42"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
+      <c r="D102" s="42"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D102">
-    <sortCondition ref="D1:D102"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E102">
+    <sortCondition ref="E1:E102"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6298,7 +6606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D553DAC-10CF-4A0B-85B1-AAAC54261F65}">
   <dimension ref="A1:E225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
+    <sheetView topLeftCell="A166" workbookViewId="0">
       <selection activeCell="C64" sqref="C64:C92"/>
     </sheetView>
   </sheetViews>
